--- a/segments.xlsx
+++ b/segments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom.cresswell/Dropbox/Geek/Gaming Projects/Bloodwych 68k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA01ED1D-CB3F-BC41-AC4A-C9F7C0745FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4B1273-204B-7941-8973-6821476E3E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="880" windowWidth="32720" windowHeight="22140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BLOODWYCH439" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BLOODWYCH439!$A$1:$M$2643</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BLOODWYCH439!$A$1:$M$2644</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="3400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5765" uniqueCount="3409">
   <si>
     <t>Type</t>
   </si>
@@ -10236,6 +10236,33 @@
   </si>
   <si>
     <t>MaoData3</t>
+  </si>
+  <si>
+    <t>GFX_Summon_LookupTable</t>
+  </si>
+  <si>
+    <t>GFX_Summon_Arms_LookupTable</t>
+  </si>
+  <si>
+    <t>Spells_Practiced_DataTable</t>
+  </si>
+  <si>
+    <t>Behemoth_Position</t>
+  </si>
+  <si>
+    <t>A6AA</t>
+  </si>
+  <si>
+    <t>New_Behemoth_Offsets</t>
+  </si>
+  <si>
+    <t>Behemoth_Claw_Offsets</t>
+  </si>
+  <si>
+    <t>GFX_CrabFace_Heights</t>
+  </si>
+  <si>
+    <t>GFX_CrabFace_Position</t>
   </si>
 </sst>
 </file>
@@ -10787,11 +10814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2643"/>
+  <dimension ref="A1:T2644"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="3" topLeftCell="A2001" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2044" sqref="E2044"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31241,7 +31268,7 @@
         <v>2290</v>
       </c>
       <c r="B1986" t="s">
-        <v>322</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1987" spans="1:2" x14ac:dyDescent="0.2">
@@ -31249,7 +31276,7 @@
         <v>2291</v>
       </c>
       <c r="B1987" t="s">
-        <v>322</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.2">
@@ -31457,7 +31484,7 @@
         <v>2319</v>
       </c>
       <c r="B2013" t="s">
-        <v>322</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="2014" spans="1:2" x14ac:dyDescent="0.2">
@@ -31465,7 +31492,7 @@
         <v>2320</v>
       </c>
       <c r="B2014" t="s">
-        <v>322</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="2015" spans="1:2" x14ac:dyDescent="0.2">
@@ -31664,9 +31691,6 @@
       <c r="A2039" t="s">
         <v>2346</v>
       </c>
-      <c r="B2039" t="s">
-        <v>322</v>
-      </c>
     </row>
     <row r="2040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2040" t="s">
@@ -32124,7 +32148,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2097" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2097" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2097" t="s">
         <v>2413</v>
       </c>
@@ -32132,7 +32156,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2098" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2098" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2098" t="s">
         <v>2414</v>
       </c>
@@ -32140,7 +32164,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2099" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2099" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2099" t="s">
         <v>2415</v>
       </c>
@@ -32148,7 +32172,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2100" t="s">
         <v>2416</v>
       </c>
@@ -32156,7 +32180,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2101" t="s">
         <v>2417</v>
       </c>
@@ -32164,108 +32188,115 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2102" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>3405</v>
+      </c>
+      <c r="H2102" s="5">
+        <v>24</v>
+      </c>
+      <c r="I2102" s="6" t="str">
+        <f t="shared" ref="I2102" si="42">IFERROR(DEC2HEX(H2102),"")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2103" t="s">
         <v>2418</v>
       </c>
-      <c r="B2102" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2103" t="s">
+      <c r="B2103" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2104" t="s">
         <v>2419</v>
       </c>
-      <c r="B2103" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2104" t="s">
+      <c r="B2104" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2105" t="s">
         <v>2420</v>
       </c>
-      <c r="B2104" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2105" t="s">
+      <c r="B2105" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2106" t="s">
         <v>2421</v>
       </c>
-      <c r="B2105" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2106" t="s">
+      <c r="B2106" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2107" t="s">
         <v>2422</v>
       </c>
-      <c r="B2106" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2107" t="s">
+      <c r="B2107" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2108" t="s">
         <v>2423</v>
       </c>
-      <c r="B2107" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2108" t="s">
+      <c r="B2108" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2109" t="s">
         <v>2424</v>
       </c>
-      <c r="B2108" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2109" t="s">
+      <c r="B2109" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2110" t="s">
         <v>2425</v>
       </c>
-      <c r="B2109" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2110" t="s">
+      <c r="B2110" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2111" t="s">
         <v>2426</v>
       </c>
-      <c r="B2110" t="s">
+      <c r="B2111" t="s">
         <v>2427</v>
       </c>
     </row>
-    <row r="2111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2111" t="s">
+    <row r="2112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2112" t="s">
         <v>2428</v>
       </c>
-      <c r="B2111" t="s">
+      <c r="B2112" t="s">
         <v>2429</v>
       </c>
-      <c r="D2111" t="s">
+      <c r="D2112" t="s">
         <v>2426</v>
-      </c>
-    </row>
-    <row r="2112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2112" t="s">
-        <v>2430</v>
-      </c>
-      <c r="B2112" t="s">
-        <v>3187</v>
       </c>
     </row>
     <row r="2113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2113" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="B2113" t="s">
-        <v>322</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="2114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2114" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B2114" t="s">
         <v>322</v>
@@ -32273,7 +32304,7 @@
     </row>
     <row r="2115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2115" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B2115" t="s">
         <v>322</v>
@@ -32281,7 +32312,7 @@
     </row>
     <row r="2116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2116" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B2116" t="s">
         <v>322</v>
@@ -32289,7 +32320,7 @@
     </row>
     <row r="2117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2117" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B2117" t="s">
         <v>322</v>
@@ -32297,7 +32328,7 @@
     </row>
     <row r="2118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2118" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B2118" t="s">
         <v>322</v>
@@ -32305,7 +32336,7 @@
     </row>
     <row r="2119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2119" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B2119" t="s">
         <v>322</v>
@@ -32313,7 +32344,7 @@
     </row>
     <row r="2120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2120" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="B2120" t="s">
         <v>322</v>
@@ -32321,7 +32352,7 @@
     </row>
     <row r="2121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2121" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B2121" t="s">
         <v>322</v>
@@ -32329,7 +32360,7 @@
     </row>
     <row r="2122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2122" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B2122" t="s">
         <v>322</v>
@@ -32337,7 +32368,7 @@
     </row>
     <row r="2123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2123" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B2123" t="s">
         <v>322</v>
@@ -32345,7 +32376,7 @@
     </row>
     <row r="2124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2124" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B2124" t="s">
         <v>322</v>
@@ -32353,7 +32384,7 @@
     </row>
     <row r="2125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2125" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B2125" t="s">
         <v>322</v>
@@ -32361,7 +32392,7 @@
     </row>
     <row r="2126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2126" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B2126" t="s">
         <v>322</v>
@@ -32369,7 +32400,7 @@
     </row>
     <row r="2127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2127" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B2127" t="s">
         <v>322</v>
@@ -32377,7 +32408,7 @@
     </row>
     <row r="2128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2128" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B2128" t="s">
         <v>322</v>
@@ -32385,7 +32416,7 @@
     </row>
     <row r="2129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2129" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B2129" t="s">
         <v>322</v>
@@ -32393,7 +32424,7 @@
     </row>
     <row r="2130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2130" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B2130" t="s">
         <v>322</v>
@@ -32401,7 +32432,7 @@
     </row>
     <row r="2131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2131" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B2131" t="s">
         <v>322</v>
@@ -32409,7 +32440,7 @@
     </row>
     <row r="2132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2132" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B2132" t="s">
         <v>322</v>
@@ -32417,7 +32448,7 @@
     </row>
     <row r="2133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2133" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B2133" t="s">
         <v>322</v>
@@ -32425,7 +32456,7 @@
     </row>
     <row r="2134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2134" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B2134" t="s">
         <v>322</v>
@@ -32433,7 +32464,7 @@
     </row>
     <row r="2135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2135" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B2135" t="s">
         <v>322</v>
@@ -32441,7 +32472,7 @@
     </row>
     <row r="2136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2136" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B2136" t="s">
         <v>322</v>
@@ -32449,7 +32480,7 @@
     </row>
     <row r="2137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2137" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B2137" t="s">
         <v>322</v>
@@ -32457,7 +32488,7 @@
     </row>
     <row r="2138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2138" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B2138" t="s">
         <v>322</v>
@@ -32465,7 +32496,7 @@
     </row>
     <row r="2139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2139" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B2139" t="s">
         <v>322</v>
@@ -32473,7 +32504,7 @@
     </row>
     <row r="2140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2140" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B2140" t="s">
         <v>322</v>
@@ -32481,7 +32512,7 @@
     </row>
     <row r="2141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2141" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B2141" t="s">
         <v>322</v>
@@ -32489,7 +32520,7 @@
     </row>
     <row r="2142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2142" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B2142" t="s">
         <v>322</v>
@@ -32497,7 +32528,7 @@
     </row>
     <row r="2143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2143" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B2143" t="s">
         <v>322</v>
@@ -32505,7 +32536,7 @@
     </row>
     <row r="2144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2144" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B2144" t="s">
         <v>322</v>
@@ -32513,7 +32544,7 @@
     </row>
     <row r="2145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2145" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B2145" t="s">
         <v>322</v>
@@ -32521,7 +32552,7 @@
     </row>
     <row r="2146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2146" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B2146" t="s">
         <v>322</v>
@@ -32529,7 +32560,7 @@
     </row>
     <row r="2147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2147" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B2147" t="s">
         <v>322</v>
@@ -32537,7 +32568,7 @@
     </row>
     <row r="2148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2148" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B2148" t="s">
         <v>322</v>
@@ -32545,7 +32576,7 @@
     </row>
     <row r="2149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2149" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B2149" t="s">
         <v>322</v>
@@ -32553,7 +32584,7 @@
     </row>
     <row r="2150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2150" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B2150" t="s">
         <v>322</v>
@@ -32561,7 +32592,7 @@
     </row>
     <row r="2151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2151" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B2151" t="s">
         <v>322</v>
@@ -32569,7 +32600,7 @@
     </row>
     <row r="2152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2152" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B2152" t="s">
         <v>322</v>
@@ -32577,7 +32608,7 @@
     </row>
     <row r="2153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2153" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B2153" t="s">
         <v>322</v>
@@ -32585,7 +32616,7 @@
     </row>
     <row r="2154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2154" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B2154" t="s">
         <v>322</v>
@@ -32593,7 +32624,7 @@
     </row>
     <row r="2155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2155" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B2155" t="s">
         <v>322</v>
@@ -32601,7 +32632,7 @@
     </row>
     <row r="2156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2156" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B2156" t="s">
         <v>322</v>
@@ -32609,7 +32640,7 @@
     </row>
     <row r="2157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2157" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B2157" t="s">
         <v>322</v>
@@ -32617,7 +32648,7 @@
     </row>
     <row r="2158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2158" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B2158" t="s">
         <v>322</v>
@@ -32625,7 +32656,7 @@
     </row>
     <row r="2159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2159" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B2159" t="s">
         <v>322</v>
@@ -32633,7 +32664,7 @@
     </row>
     <row r="2160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2160" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B2160" t="s">
         <v>322</v>
@@ -32641,7 +32672,7 @@
     </row>
     <row r="2161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2161" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B2161" t="s">
         <v>322</v>
@@ -32649,7 +32680,7 @@
     </row>
     <row r="2162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2162" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B2162" t="s">
         <v>322</v>
@@ -32657,7 +32688,7 @@
     </row>
     <row r="2163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2163" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B2163" t="s">
         <v>322</v>
@@ -32665,7 +32696,7 @@
     </row>
     <row r="2164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2164" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B2164" t="s">
         <v>322</v>
@@ -32673,7 +32704,7 @@
     </row>
     <row r="2165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2165" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B2165" t="s">
         <v>322</v>
@@ -32681,7 +32712,7 @@
     </row>
     <row r="2166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2166" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B2166" t="s">
         <v>322</v>
@@ -32689,7 +32720,7 @@
     </row>
     <row r="2167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2167" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B2167" t="s">
         <v>322</v>
@@ -32697,7 +32728,7 @@
     </row>
     <row r="2168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2168" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B2168" t="s">
         <v>322</v>
@@ -32705,7 +32736,7 @@
     </row>
     <row r="2169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2169" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="B2169" t="s">
         <v>322</v>
@@ -32713,7 +32744,7 @@
     </row>
     <row r="2170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2170" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B2170" t="s">
         <v>322</v>
@@ -32721,7 +32752,7 @@
     </row>
     <row r="2171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2171" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B2171" t="s">
         <v>322</v>
@@ -32729,7 +32760,7 @@
     </row>
     <row r="2172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2172" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B2172" t="s">
         <v>322</v>
@@ -32737,7 +32768,7 @@
     </row>
     <row r="2173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2173" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="B2173" t="s">
         <v>322</v>
@@ -32745,7 +32776,7 @@
     </row>
     <row r="2174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2174" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B2174" t="s">
         <v>322</v>
@@ -32753,7 +32784,7 @@
     </row>
     <row r="2175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2175" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B2175" t="s">
         <v>322</v>
@@ -32761,7 +32792,7 @@
     </row>
     <row r="2176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2176" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B2176" t="s">
         <v>322</v>
@@ -32769,7 +32800,7 @@
     </row>
     <row r="2177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2177" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="B2177" t="s">
         <v>322</v>
@@ -32777,7 +32808,7 @@
     </row>
     <row r="2178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2178" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B2178" t="s">
         <v>322</v>
@@ -32785,7 +32816,7 @@
     </row>
     <row r="2179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2179" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B2179" t="s">
         <v>322</v>
@@ -32793,7 +32824,7 @@
     </row>
     <row r="2180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2180" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B2180" t="s">
         <v>322</v>
@@ -32801,7 +32832,7 @@
     </row>
     <row r="2181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2181" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B2181" t="s">
         <v>322</v>
@@ -32809,7 +32840,7 @@
     </row>
     <row r="2182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2182" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B2182" t="s">
         <v>322</v>
@@ -32817,7 +32848,7 @@
     </row>
     <row r="2183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2183" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B2183" t="s">
         <v>322</v>
@@ -32825,7 +32856,7 @@
     </row>
     <row r="2184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2184" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B2184" t="s">
         <v>322</v>
@@ -32833,7 +32864,7 @@
     </row>
     <row r="2185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2185" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B2185" t="s">
         <v>322</v>
@@ -32841,7 +32872,7 @@
     </row>
     <row r="2186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2186" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B2186" t="s">
         <v>322</v>
@@ -32849,7 +32880,7 @@
     </row>
     <row r="2187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2187" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B2187" t="s">
         <v>322</v>
@@ -32857,7 +32888,7 @@
     </row>
     <row r="2188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2188" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B2188" t="s">
         <v>322</v>
@@ -32865,7 +32896,7 @@
     </row>
     <row r="2189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2189" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B2189" t="s">
         <v>322</v>
@@ -32873,7 +32904,7 @@
     </row>
     <row r="2190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2190" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B2190" t="s">
         <v>322</v>
@@ -32881,7 +32912,7 @@
     </row>
     <row r="2191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2191" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B2191" t="s">
         <v>322</v>
@@ -32889,7 +32920,7 @@
     </row>
     <row r="2192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2192" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B2192" t="s">
         <v>322</v>
@@ -32897,7 +32928,7 @@
     </row>
     <row r="2193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2193" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B2193" t="s">
         <v>322</v>
@@ -32905,7 +32936,7 @@
     </row>
     <row r="2194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2194" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B2194" t="s">
         <v>322</v>
@@ -32913,7 +32944,7 @@
     </row>
     <row r="2195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2195" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B2195" t="s">
         <v>322</v>
@@ -32921,7 +32952,7 @@
     </row>
     <row r="2196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2196" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B2196" t="s">
         <v>322</v>
@@ -32929,7 +32960,7 @@
     </row>
     <row r="2197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2197" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B2197" t="s">
         <v>322</v>
@@ -32937,7 +32968,7 @@
     </row>
     <row r="2198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2198" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B2198" t="s">
         <v>322</v>
@@ -32945,7 +32976,7 @@
     </row>
     <row r="2199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2199" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B2199" t="s">
         <v>322</v>
@@ -32953,7 +32984,7 @@
     </row>
     <row r="2200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2200" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B2200" t="s">
         <v>322</v>
@@ -32961,7 +32992,7 @@
     </row>
     <row r="2201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2201" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B2201" t="s">
         <v>322</v>
@@ -32969,7 +33000,7 @@
     </row>
     <row r="2202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2202" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B2202" t="s">
         <v>322</v>
@@ -32977,7 +33008,7 @@
     </row>
     <row r="2203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2203" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B2203" t="s">
         <v>322</v>
@@ -32985,7 +33016,7 @@
     </row>
     <row r="2204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2204" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B2204" t="s">
         <v>322</v>
@@ -32993,7 +33024,7 @@
     </row>
     <row r="2205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2205" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B2205" t="s">
         <v>322</v>
@@ -33001,7 +33032,7 @@
     </row>
     <row r="2206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2206" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B2206" t="s">
         <v>322</v>
@@ -33009,7 +33040,7 @@
     </row>
     <row r="2207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2207" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B2207" t="s">
         <v>322</v>
@@ -33017,7 +33048,7 @@
     </row>
     <row r="2208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2208" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B2208" t="s">
         <v>322</v>
@@ -33025,7 +33056,7 @@
     </row>
     <row r="2209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2209" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="B2209" t="s">
         <v>322</v>
@@ -33033,7 +33064,7 @@
     </row>
     <row r="2210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2210" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B2210" t="s">
         <v>322</v>
@@ -33041,7 +33072,7 @@
     </row>
     <row r="2211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2211" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B2211" t="s">
         <v>322</v>
@@ -33049,7 +33080,7 @@
     </row>
     <row r="2212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2212" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B2212" t="s">
         <v>322</v>
@@ -33057,7 +33088,7 @@
     </row>
     <row r="2213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2213" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B2213" t="s">
         <v>322</v>
@@ -33065,7 +33096,7 @@
     </row>
     <row r="2214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2214" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B2214" t="s">
         <v>322</v>
@@ -33073,7 +33104,7 @@
     </row>
     <row r="2215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2215" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B2215" t="s">
         <v>322</v>
@@ -33081,47 +33112,47 @@
     </row>
     <row r="2216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2216" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B2216" t="s">
-        <v>3339</v>
-      </c>
-      <c r="C2216" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2216" t="s">
-        <v>3123</v>
-      </c>
-      <c r="E2216" t="str">
-        <f t="shared" ref="E2216" si="42">C2216&amp;"/"&amp;D2216</f>
-        <v>gfx/Main_Slots.colours</v>
-      </c>
-      <c r="F2216" t="s">
-        <v>3338</v>
-      </c>
-      <c r="G2216" s="5">
-        <f t="shared" ref="G2216" si="43">IF(F2216&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F2216,"adrEA",""),"$","")),"")</f>
-        <v>44672</v>
-      </c>
-      <c r="H2216" s="5">
-        <v>32</v>
-      </c>
-      <c r="I2216" s="6" t="str">
-        <f t="shared" ref="I2216" si="44">IFERROR(DEC2HEX(H2216),"")</f>
-        <v>20</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2217" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B2217" t="s">
-        <v>322</v>
+        <v>3339</v>
+      </c>
+      <c r="C2217" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2217" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E2217" t="str">
+        <f t="shared" ref="E2217" si="43">C2217&amp;"/"&amp;D2217</f>
+        <v>gfx/Main_Slots.colours</v>
+      </c>
+      <c r="F2217" t="s">
+        <v>3338</v>
+      </c>
+      <c r="G2217" s="5">
+        <f t="shared" ref="G2217" si="44">IF(F2217&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F2217,"adrEA",""),"$","")),"")</f>
+        <v>44672</v>
+      </c>
+      <c r="H2217" s="5">
+        <v>32</v>
+      </c>
+      <c r="I2217" s="6" t="str">
+        <f t="shared" ref="I2217" si="45">IFERROR(DEC2HEX(H2217),"")</f>
+        <v>20</v>
       </c>
     </row>
     <row r="2218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2218" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B2218" t="s">
         <v>322</v>
@@ -33129,47 +33160,47 @@
     </row>
     <row r="2219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2219" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B2219" t="s">
-        <v>3388</v>
-      </c>
-      <c r="C2219" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2219" t="s">
-        <v>3389</v>
-      </c>
-      <c r="E2219" t="str">
-        <f t="shared" ref="E2219" si="45">C2219&amp;"/"&amp;D2219</f>
-        <v>data/Door_Lock.colours</v>
-      </c>
-      <c r="F2219" t="s">
-        <v>3390</v>
-      </c>
-      <c r="G2219" s="5">
-        <f t="shared" ref="G2219" si="46">IF(F2219&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F2219,"adrEA",""),"$","")),"")</f>
-        <v>44882</v>
-      </c>
-      <c r="H2219" s="5">
-        <v>8</v>
-      </c>
-      <c r="I2219" s="6" t="str">
-        <f t="shared" ref="I2219" si="47">IFERROR(DEC2HEX(H2219),"")</f>
-        <v>8</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2220" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B2220" t="s">
-        <v>322</v>
+        <v>3388</v>
+      </c>
+      <c r="C2220" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2220" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E2220" t="str">
+        <f t="shared" ref="E2220" si="46">C2220&amp;"/"&amp;D2220</f>
+        <v>data/Door_Lock.colours</v>
+      </c>
+      <c r="F2220" t="s">
+        <v>3390</v>
+      </c>
+      <c r="G2220" s="5">
+        <f t="shared" ref="G2220" si="47">IF(F2220&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F2220,"adrEA",""),"$","")),"")</f>
+        <v>44882</v>
+      </c>
+      <c r="H2220" s="5">
+        <v>8</v>
+      </c>
+      <c r="I2220" s="6" t="str">
+        <f t="shared" ref="I2220" si="48">IFERROR(DEC2HEX(H2220),"")</f>
+        <v>8</v>
       </c>
     </row>
     <row r="2221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2221" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B2221" t="s">
         <v>322</v>
@@ -33177,7 +33208,7 @@
     </row>
     <row r="2222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2222" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B2222" t="s">
         <v>322</v>
@@ -33185,7 +33216,7 @@
     </row>
     <row r="2223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2223" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B2223" t="s">
         <v>322</v>
@@ -33193,7 +33224,7 @@
     </row>
     <row r="2224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2224" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B2224" t="s">
         <v>322</v>
@@ -33201,7 +33232,7 @@
     </row>
     <row r="2225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2225" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B2225" t="s">
         <v>322</v>
@@ -33209,7 +33240,7 @@
     </row>
     <row r="2226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2226" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B2226" t="s">
         <v>322</v>
@@ -33217,7 +33248,7 @@
     </row>
     <row r="2227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2227" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B2227" t="s">
         <v>322</v>
@@ -33225,7 +33256,7 @@
     </row>
     <row r="2228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2228" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B2228" t="s">
         <v>322</v>
@@ -33233,7 +33264,7 @@
     </row>
     <row r="2229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2229" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B2229" t="s">
         <v>322</v>
@@ -33241,7 +33272,7 @@
     </row>
     <row r="2230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2230" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B2230" t="s">
         <v>322</v>
@@ -33249,7 +33280,7 @@
     </row>
     <row r="2231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2231" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="B2231" t="s">
         <v>322</v>
@@ -33257,7 +33288,7 @@
     </row>
     <row r="2232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2232" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B2232" t="s">
         <v>322</v>
@@ -33265,7 +33296,7 @@
     </row>
     <row r="2233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2233" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B2233" t="s">
         <v>322</v>
@@ -33273,7 +33304,7 @@
     </row>
     <row r="2234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2234" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B2234" t="s">
         <v>322</v>
@@ -33281,7 +33312,7 @@
     </row>
     <row r="2235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2235" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B2235" t="s">
         <v>322</v>
@@ -33289,7 +33320,7 @@
     </row>
     <row r="2236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2236" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B2236" t="s">
         <v>322</v>
@@ -33297,7 +33328,7 @@
     </row>
     <row r="2237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2237" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B2237" t="s">
         <v>322</v>
@@ -33305,7 +33336,7 @@
     </row>
     <row r="2238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2238" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B2238" t="s">
         <v>322</v>
@@ -33313,39 +33344,39 @@
     </row>
     <row r="2239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2239" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B2239" t="s">
-        <v>3361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2240" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B2240" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="2241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2241" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B2241" t="s">
-        <v>3391</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="2242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2242" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B2242" t="s">
-        <v>322</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="2243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2243" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B2243" t="s">
         <v>322</v>
@@ -33353,7 +33384,7 @@
     </row>
     <row r="2244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2244" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B2244" t="s">
         <v>322</v>
@@ -33361,7 +33392,7 @@
     </row>
     <row r="2245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2245" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B2245" t="s">
         <v>322</v>
@@ -33369,7 +33400,7 @@
     </row>
     <row r="2246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2246" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B2246" t="s">
         <v>322</v>
@@ -33377,7 +33408,7 @@
     </row>
     <row r="2247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2247" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B2247" t="s">
         <v>322</v>
@@ -33385,7 +33416,7 @@
     </row>
     <row r="2248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2248" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B2248" t="s">
         <v>322</v>
@@ -33393,7 +33424,7 @@
     </row>
     <row r="2249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2249" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B2249" t="s">
         <v>322</v>
@@ -33401,7 +33432,7 @@
     </row>
     <row r="2250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2250" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B2250" t="s">
         <v>322</v>
@@ -33409,7 +33440,7 @@
     </row>
     <row r="2251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2251" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B2251" t="s">
         <v>322</v>
@@ -33417,7 +33448,7 @@
     </row>
     <row r="2252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2252" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B2252" t="s">
         <v>322</v>
@@ -33425,7 +33456,7 @@
     </row>
     <row r="2253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2253" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B2253" t="s">
         <v>322</v>
@@ -33433,7 +33464,7 @@
     </row>
     <row r="2254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2254" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B2254" t="s">
         <v>322</v>
@@ -33441,7 +33472,7 @@
     </row>
     <row r="2255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2255" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B2255" t="s">
         <v>322</v>
@@ -33449,7 +33480,7 @@
     </row>
     <row r="2256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2256" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B2256" t="s">
         <v>322</v>
@@ -33457,7 +33488,7 @@
     </row>
     <row r="2257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2257" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B2257" t="s">
         <v>322</v>
@@ -33465,7 +33496,7 @@
     </row>
     <row r="2258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2258" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B2258" t="s">
         <v>322</v>
@@ -33473,7 +33504,7 @@
     </row>
     <row r="2259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2259" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B2259" t="s">
         <v>322</v>
@@ -33481,7 +33512,7 @@
     </row>
     <row r="2260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2260" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B2260" t="s">
         <v>322</v>
@@ -33489,7 +33520,7 @@
     </row>
     <row r="2261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2261" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B2261" t="s">
         <v>322</v>
@@ -33497,7 +33528,7 @@
     </row>
     <row r="2262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2262" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B2262" t="s">
         <v>322</v>
@@ -33505,7 +33536,7 @@
     </row>
     <row r="2263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2263" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B2263" t="s">
         <v>322</v>
@@ -33513,7 +33544,7 @@
     </row>
     <row r="2264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2264" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B2264" t="s">
         <v>322</v>
@@ -33521,7 +33552,7 @@
     </row>
     <row r="2265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2265" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="B2265" t="s">
         <v>322</v>
@@ -33529,7 +33560,7 @@
     </row>
     <row r="2266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2266" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="B2266" t="s">
         <v>322</v>
@@ -33537,7 +33568,7 @@
     </row>
     <row r="2267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2267" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B2267" t="s">
         <v>322</v>
@@ -33545,7 +33576,7 @@
     </row>
     <row r="2268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2268" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="B2268" t="s">
         <v>322</v>
@@ -33553,7 +33584,7 @@
     </row>
     <row r="2269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2269" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="B2269" t="s">
         <v>322</v>
@@ -33561,7 +33592,7 @@
     </row>
     <row r="2270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2270" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="B2270" t="s">
         <v>322</v>
@@ -33569,7 +33600,7 @@
     </row>
     <row r="2271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2271" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B2271" t="s">
         <v>322</v>
@@ -33577,7 +33608,7 @@
     </row>
     <row r="2272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2272" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="B2272" t="s">
         <v>322</v>
@@ -33585,7 +33616,7 @@
     </row>
     <row r="2273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2273" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B2273" t="s">
         <v>322</v>
@@ -33593,7 +33624,7 @@
     </row>
     <row r="2274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2274" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="B2274" t="s">
         <v>322</v>
@@ -33601,7 +33632,7 @@
     </row>
     <row r="2275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2275" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B2275" t="s">
         <v>322</v>
@@ -33609,7 +33640,7 @@
     </row>
     <row r="2276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2276" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B2276" t="s">
         <v>322</v>
@@ -33617,7 +33648,7 @@
     </row>
     <row r="2277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2277" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B2277" t="s">
         <v>322</v>
@@ -33625,7 +33656,7 @@
     </row>
     <row r="2278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2278" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B2278" t="s">
         <v>322</v>
@@ -33633,7 +33664,7 @@
     </row>
     <row r="2279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2279" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B2279" t="s">
         <v>322</v>
@@ -33641,7 +33672,7 @@
     </row>
     <row r="2280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2280" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B2280" t="s">
         <v>322</v>
@@ -33649,7 +33680,7 @@
     </row>
     <row r="2281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2281" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B2281" t="s">
         <v>322</v>
@@ -33657,7 +33688,7 @@
     </row>
     <row r="2282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2282" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B2282" t="s">
         <v>322</v>
@@ -33665,7 +33696,7 @@
     </row>
     <row r="2283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2283" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B2283" t="s">
         <v>322</v>
@@ -33673,7 +33704,7 @@
     </row>
     <row r="2284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2284" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B2284" t="s">
         <v>322</v>
@@ -33681,7 +33712,7 @@
     </row>
     <row r="2285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2285" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B2285" t="s">
         <v>322</v>
@@ -33689,7 +33720,7 @@
     </row>
     <row r="2286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2286" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B2286" t="s">
         <v>322</v>
@@ -33697,7 +33728,7 @@
     </row>
     <row r="2287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2287" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B2287" t="s">
         <v>322</v>
@@ -33705,7 +33736,7 @@
     </row>
     <row r="2288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2288" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B2288" t="s">
         <v>322</v>
@@ -33713,7 +33744,7 @@
     </row>
     <row r="2289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2289" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B2289" t="s">
         <v>322</v>
@@ -33721,7 +33752,7 @@
     </row>
     <row r="2290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2290" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B2290" t="s">
         <v>322</v>
@@ -33729,23 +33760,23 @@
     </row>
     <row r="2291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2291" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B2291" t="s">
-        <v>2612</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2292" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="B2292" t="s">
-        <v>322</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="2293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2293" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B2293" t="s">
         <v>322</v>
@@ -33753,7 +33784,7 @@
     </row>
     <row r="2294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2294" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B2294" t="s">
         <v>322</v>
@@ -33761,23 +33792,23 @@
     </row>
     <row r="2295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2295" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B2295" t="s">
-        <v>2617</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2296" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="B2296" t="s">
-        <v>322</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="2297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2297" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="B2297" t="s">
         <v>322</v>
@@ -33785,7 +33816,7 @@
     </row>
     <row r="2298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2298" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B2298" t="s">
         <v>322</v>
@@ -33793,7 +33824,7 @@
     </row>
     <row r="2299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2299" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B2299" t="s">
         <v>322</v>
@@ -33801,7 +33832,7 @@
     </row>
     <row r="2300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2300" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B2300" t="s">
         <v>322</v>
@@ -33809,31 +33840,31 @@
     </row>
     <row r="2301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2301" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B2301" t="s">
-        <v>2624</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2302" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B2302" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="2303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2303" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="B2303" t="s">
-        <v>322</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="2304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2304" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B2304" t="s">
         <v>322</v>
@@ -33841,7 +33872,7 @@
     </row>
     <row r="2305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2305" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B2305" t="s">
         <v>322</v>
@@ -33849,7 +33880,7 @@
     </row>
     <row r="2306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2306" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B2306" t="s">
         <v>322</v>
@@ -33857,7 +33888,7 @@
     </row>
     <row r="2307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2307" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B2307" t="s">
         <v>322</v>
@@ -33865,23 +33896,23 @@
     </row>
     <row r="2308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2308" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B2308" t="s">
-        <v>2633</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2309" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="B2309" t="s">
-        <v>322</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="2310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2310" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B2310" t="s">
         <v>322</v>
@@ -33889,7 +33920,7 @@
     </row>
     <row r="2311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2311" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B2311" t="s">
         <v>322</v>
@@ -33897,7 +33928,7 @@
     </row>
     <row r="2312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2312" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B2312" t="s">
         <v>322</v>
@@ -33905,7 +33936,7 @@
     </row>
     <row r="2313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2313" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B2313" t="s">
         <v>322</v>
@@ -33913,7 +33944,7 @@
     </row>
     <row r="2314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2314" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B2314" t="s">
         <v>322</v>
@@ -33921,7 +33952,7 @@
     </row>
     <row r="2315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2315" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="B2315" t="s">
         <v>322</v>
@@ -33929,7 +33960,7 @@
     </row>
     <row r="2316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2316" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B2316" t="s">
         <v>322</v>
@@ -33937,7 +33968,7 @@
     </row>
     <row r="2317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2317" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B2317" t="s">
         <v>322</v>
@@ -33945,7 +33976,7 @@
     </row>
     <row r="2318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2318" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B2318" t="s">
         <v>322</v>
@@ -33953,23 +33984,23 @@
     </row>
     <row r="2319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2319" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="B2319" t="s">
-        <v>2645</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2320" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="B2320" t="s">
-        <v>322</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="2321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2321" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B2321" t="s">
         <v>322</v>
@@ -33977,7 +34008,7 @@
     </row>
     <row r="2322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2322" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B2322" t="s">
         <v>322</v>
@@ -33985,23 +34016,23 @@
     </row>
     <row r="2323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2323" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B2323" t="s">
-        <v>2650</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2324" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="B2324" t="s">
-        <v>322</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="2325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2325" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B2325" t="s">
         <v>322</v>
@@ -34009,7 +34040,7 @@
     </row>
     <row r="2326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2326" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B2326" t="s">
         <v>322</v>
@@ -34017,7 +34048,7 @@
     </row>
     <row r="2327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2327" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B2327" t="s">
         <v>322</v>
@@ -34025,31 +34056,31 @@
     </row>
     <row r="2328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2328" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B2328" t="s">
-        <v>2656</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2329" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="B2329" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="2330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2330" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="B2330" t="s">
-        <v>322</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="2331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2331" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B2331" t="s">
         <v>322</v>
@@ -34057,7 +34088,7 @@
     </row>
     <row r="2332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2332" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B2332" t="s">
         <v>322</v>
@@ -34065,7 +34096,7 @@
     </row>
     <row r="2333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2333" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B2333" t="s">
         <v>322</v>
@@ -34073,7 +34104,7 @@
     </row>
     <row r="2334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2334" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B2334" t="s">
         <v>322</v>
@@ -34081,7 +34112,7 @@
     </row>
     <row r="2335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2335" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B2335" t="s">
         <v>322</v>
@@ -34089,7 +34120,7 @@
     </row>
     <row r="2336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2336" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B2336" t="s">
         <v>322</v>
@@ -34097,7 +34128,7 @@
     </row>
     <row r="2337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2337" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B2337" t="s">
         <v>322</v>
@@ -34105,7 +34136,7 @@
     </row>
     <row r="2338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2338" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B2338" t="s">
         <v>322</v>
@@ -34113,7 +34144,7 @@
     </row>
     <row r="2339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2339" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B2339" t="s">
         <v>322</v>
@@ -34121,7 +34152,7 @@
     </row>
     <row r="2340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2340" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B2340" t="s">
         <v>322</v>
@@ -34129,7 +34160,7 @@
     </row>
     <row r="2341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2341" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B2341" t="s">
         <v>322</v>
@@ -34137,7 +34168,7 @@
     </row>
     <row r="2342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2342" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B2342" t="s">
         <v>322</v>
@@ -34145,7 +34176,7 @@
     </row>
     <row r="2343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2343" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B2343" t="s">
         <v>322</v>
@@ -34153,7 +34184,7 @@
     </row>
     <row r="2344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2344" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B2344" t="s">
         <v>322</v>
@@ -34161,7 +34192,7 @@
     </row>
     <row r="2345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2345" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B2345" t="s">
         <v>322</v>
@@ -34169,7 +34200,7 @@
     </row>
     <row r="2346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2346" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B2346" t="s">
         <v>322</v>
@@ -34177,7 +34208,7 @@
     </row>
     <row r="2347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2347" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B2347" t="s">
         <v>322</v>
@@ -34185,7 +34216,7 @@
     </row>
     <row r="2348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2348" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B2348" t="s">
         <v>322</v>
@@ -34193,7 +34224,7 @@
     </row>
     <row r="2349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2349" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B2349" t="s">
         <v>322</v>
@@ -34201,7 +34232,7 @@
     </row>
     <row r="2350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2350" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B2350" t="s">
         <v>322</v>
@@ -34209,7 +34240,7 @@
     </row>
     <row r="2351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2351" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B2351" t="s">
         <v>322</v>
@@ -34217,7 +34248,7 @@
     </row>
     <row r="2352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2352" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B2352" t="s">
         <v>322</v>
@@ -34225,7 +34256,7 @@
     </row>
     <row r="2353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2353" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B2353" t="s">
         <v>322</v>
@@ -34233,7 +34264,7 @@
     </row>
     <row r="2354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2354" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B2354" t="s">
         <v>322</v>
@@ -34241,7 +34272,7 @@
     </row>
     <row r="2355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2355" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B2355" t="s">
         <v>322</v>
@@ -34249,7 +34280,7 @@
     </row>
     <row r="2356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2356" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="B2356" t="s">
         <v>322</v>
@@ -34257,7 +34288,7 @@
     </row>
     <row r="2357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2357" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B2357" t="s">
         <v>322</v>
@@ -34265,7 +34296,7 @@
     </row>
     <row r="2358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2358" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="B2358" t="s">
         <v>322</v>
@@ -34273,7 +34304,7 @@
     </row>
     <row r="2359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2359" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="B2359" t="s">
         <v>322</v>
@@ -34281,7 +34312,7 @@
     </row>
     <row r="2360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2360" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="B2360" t="s">
         <v>322</v>
@@ -34289,7 +34320,7 @@
     </row>
     <row r="2361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2361" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="B2361" t="s">
         <v>322</v>
@@ -34297,7 +34328,7 @@
     </row>
     <row r="2362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2362" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="B2362" t="s">
         <v>322</v>
@@ -34305,7 +34336,7 @@
     </row>
     <row r="2363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2363" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="B2363" t="s">
         <v>322</v>
@@ -34313,7 +34344,7 @@
     </row>
     <row r="2364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2364" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="B2364" t="s">
         <v>322</v>
@@ -34321,7 +34352,7 @@
     </row>
     <row r="2365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2365" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="B2365" t="s">
         <v>322</v>
@@ -34329,7 +34360,7 @@
     </row>
     <row r="2366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2366" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B2366" t="s">
         <v>322</v>
@@ -34337,7 +34368,7 @@
     </row>
     <row r="2367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2367" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="B2367" t="s">
         <v>322</v>
@@ -34345,7 +34376,7 @@
     </row>
     <row r="2368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2368" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="B2368" t="s">
         <v>322</v>
@@ -34353,7 +34384,7 @@
     </row>
     <row r="2369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2369" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B2369" t="s">
         <v>322</v>
@@ -34361,7 +34392,7 @@
     </row>
     <row r="2370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2370" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B2370" t="s">
         <v>322</v>
@@ -34369,7 +34400,7 @@
     </row>
     <row r="2371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2371" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B2371" t="s">
         <v>322</v>
@@ -34377,7 +34408,7 @@
     </row>
     <row r="2372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2372" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B2372" t="s">
         <v>322</v>
@@ -34385,7 +34416,7 @@
     </row>
     <row r="2373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2373" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B2373" t="s">
         <v>322</v>
@@ -34393,7 +34424,7 @@
     </row>
     <row r="2374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2374" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B2374" t="s">
         <v>322</v>
@@ -34401,7 +34432,7 @@
     </row>
     <row r="2375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2375" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B2375" t="s">
         <v>322</v>
@@ -34409,7 +34440,7 @@
     </row>
     <row r="2376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2376" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B2376" t="s">
         <v>322</v>
@@ -34417,7 +34448,7 @@
     </row>
     <row r="2377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2377" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B2377" t="s">
         <v>322</v>
@@ -34425,7 +34456,7 @@
     </row>
     <row r="2378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2378" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B2378" t="s">
         <v>322</v>
@@ -34433,7 +34464,7 @@
     </row>
     <row r="2379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2379" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B2379" t="s">
         <v>322</v>
@@ -34441,7 +34472,7 @@
     </row>
     <row r="2380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2380" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B2380" t="s">
         <v>322</v>
@@ -34449,7 +34480,7 @@
     </row>
     <row r="2381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2381" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B2381" t="s">
         <v>322</v>
@@ -34457,7 +34488,7 @@
     </row>
     <row r="2382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2382" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B2382" t="s">
         <v>322</v>
@@ -34465,7 +34496,7 @@
     </row>
     <row r="2383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2383" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B2383" t="s">
         <v>322</v>
@@ -34473,39 +34504,39 @@
     </row>
     <row r="2384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2384" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B2384" t="s">
-        <v>2714</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2385" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="B2385" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="2386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2386" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="B2386" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="2387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2387" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="B2387" t="s">
-        <v>322</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="2388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2388" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B2388" t="s">
         <v>322</v>
@@ -34513,23 +34544,23 @@
     </row>
     <row r="2389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2389" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B2389" t="s">
-        <v>2721</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2390" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B2390" t="s">
-        <v>322</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="2391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2391" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B2391" t="s">
         <v>322</v>
@@ -34537,7 +34568,7 @@
     </row>
     <row r="2392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2392" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B2392" t="s">
         <v>322</v>
@@ -34545,7 +34576,7 @@
     </row>
     <row r="2393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2393" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B2393" t="s">
         <v>322</v>
@@ -34553,7 +34584,7 @@
     </row>
     <row r="2394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2394" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B2394" t="s">
         <v>322</v>
@@ -34561,7 +34592,7 @@
     </row>
     <row r="2395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2395" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B2395" t="s">
         <v>322</v>
@@ -34569,7 +34600,7 @@
     </row>
     <row r="2396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2396" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B2396" t="s">
         <v>322</v>
@@ -34577,7 +34608,7 @@
     </row>
     <row r="2397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2397" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B2397" t="s">
         <v>322</v>
@@ -34585,7 +34616,7 @@
     </row>
     <row r="2398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2398" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B2398" t="s">
         <v>322</v>
@@ -34593,7 +34624,7 @@
     </row>
     <row r="2399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2399" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B2399" t="s">
         <v>322</v>
@@ -34601,7 +34632,7 @@
     </row>
     <row r="2400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2400" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B2400" t="s">
         <v>322</v>
@@ -34609,7 +34640,7 @@
     </row>
     <row r="2401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2401" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B2401" t="s">
         <v>322</v>
@@ -34617,7 +34648,7 @@
     </row>
     <row r="2402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2402" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B2402" t="s">
         <v>322</v>
@@ -34625,7 +34656,7 @@
     </row>
     <row r="2403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2403" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B2403" t="s">
         <v>322</v>
@@ -34633,7 +34664,7 @@
     </row>
     <row r="2404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2404" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B2404" t="s">
         <v>322</v>
@@ -34641,7 +34672,7 @@
     </row>
     <row r="2405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2405" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="B2405" t="s">
         <v>322</v>
@@ -34649,7 +34680,7 @@
     </row>
     <row r="2406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2406" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B2406" t="s">
         <v>322</v>
@@ -34657,7 +34688,7 @@
     </row>
     <row r="2407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2407" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B2407" t="s">
         <v>322</v>
@@ -34665,7 +34696,7 @@
     </row>
     <row r="2408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2408" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="B2408" t="s">
         <v>322</v>
@@ -34673,7 +34704,7 @@
     </row>
     <row r="2409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2409" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B2409" t="s">
         <v>322</v>
@@ -34681,7 +34712,7 @@
     </row>
     <row r="2410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2410" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B2410" t="s">
         <v>322</v>
@@ -34689,75 +34720,75 @@
     </row>
     <row r="2411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2411" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="B2411" t="s">
-        <v>2744</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2412" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="B2412" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="2413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2413" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="B2413" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="2414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2414" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="B2414" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="2415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2415" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B2415" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="2416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2416" t="s">
-        <v>2752</v>
+        <v>2750</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>2751</v>
       </c>
     </row>
     <row r="2417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2417" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="2418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2418" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="2419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2419" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="2420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2420" t="s">
-        <v>2756</v>
-      </c>
-      <c r="B2420" t="s">
-        <v>322</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="2421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2421" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="B2421" t="s">
         <v>322</v>
@@ -34765,7 +34796,7 @@
     </row>
     <row r="2422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2422" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="B2422" t="s">
         <v>322</v>
@@ -34773,7 +34804,7 @@
     </row>
     <row r="2423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2423" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="B2423" t="s">
         <v>322</v>
@@ -34781,7 +34812,7 @@
     </row>
     <row r="2424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2424" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="B2424" t="s">
         <v>322</v>
@@ -34789,7 +34820,7 @@
     </row>
     <row r="2425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2425" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B2425" t="s">
         <v>322</v>
@@ -34797,7 +34828,7 @@
     </row>
     <row r="2426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2426" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B2426" t="s">
         <v>322</v>
@@ -34805,7 +34836,7 @@
     </row>
     <row r="2427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2427" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B2427" t="s">
         <v>322</v>
@@ -34813,7 +34844,7 @@
     </row>
     <row r="2428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2428" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="B2428" t="s">
         <v>322</v>
@@ -34821,7 +34852,7 @@
     </row>
     <row r="2429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2429" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B2429" t="s">
         <v>322</v>
@@ -34829,7 +34860,7 @@
     </row>
     <row r="2430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2430" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B2430" t="s">
         <v>322</v>
@@ -34837,23 +34868,23 @@
     </row>
     <row r="2431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2431" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="B2431" t="s">
-        <v>2767</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2432" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B2432" t="s">
-        <v>322</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="2433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2433" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B2433" t="s">
         <v>322</v>
@@ -34861,7 +34892,7 @@
     </row>
     <row r="2434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2434" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="B2434" t="s">
         <v>322</v>
@@ -34869,7 +34900,7 @@
     </row>
     <row r="2435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2435" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="B2435" t="s">
         <v>322</v>
@@ -34877,23 +34908,23 @@
     </row>
     <row r="2436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2436" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="B2436" t="s">
-        <v>2773</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2437" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="B2437" t="s">
-        <v>322</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="2438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2438" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B2438" t="s">
         <v>322</v>
@@ -34901,7 +34932,7 @@
     </row>
     <row r="2439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2439" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="B2439" t="s">
         <v>322</v>
@@ -34909,166 +34940,166 @@
     </row>
     <row r="2440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2440" t="s">
-        <v>2777</v>
+        <v>2776</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="2441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2441" t="s">
-        <v>2778</v>
-      </c>
-      <c r="B2441" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="2442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2442" t="s">
-        <v>2780</v>
+        <v>2778</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>2779</v>
       </c>
     </row>
     <row r="2443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2443" t="s">
-        <v>2781</v>
-      </c>
-      <c r="B2443" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="2444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2444" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="B2444" t="s">
-        <v>322</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="2445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2445" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="B2445" t="s">
-        <v>2785</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2446" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="B2446" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="2447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2447" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B2447" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="2448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2448" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="B2448" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="2449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2449" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="B2449" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="2450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2450" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="B2450" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="2451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2451" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="B2451" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="2452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2452" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="B2452" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="2453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2453" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="B2453" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="2454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2454" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="B2454" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="2455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2455" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="B2455" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="2456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2456" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="B2456" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="2457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2457" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="B2457" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="2458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2458" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B2458" t="s">
-        <v>322</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="2459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2459" t="s">
-        <v>2809</v>
+        <v>2808</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="2460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2460" t="s">
-        <v>2810</v>
-      </c>
-      <c r="B2460" t="s">
-        <v>322</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="2461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2461" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B2461" t="s">
         <v>322</v>
@@ -35076,7 +35107,7 @@
     </row>
     <row r="2462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2462" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B2462" t="s">
         <v>322</v>
@@ -35084,7 +35115,7 @@
     </row>
     <row r="2463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2463" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B2463" t="s">
         <v>322</v>
@@ -35092,7 +35123,7 @@
     </row>
     <row r="2464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2464" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B2464" t="s">
         <v>322</v>
@@ -35100,7 +35131,7 @@
     </row>
     <row r="2465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2465" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B2465" t="s">
         <v>322</v>
@@ -35108,7 +35139,7 @@
     </row>
     <row r="2466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2466" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B2466" t="s">
         <v>322</v>
@@ -35116,7 +35147,7 @@
     </row>
     <row r="2467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2467" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B2467" t="s">
         <v>322</v>
@@ -35124,7 +35155,7 @@
     </row>
     <row r="2468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2468" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B2468" t="s">
         <v>322</v>
@@ -35132,7 +35163,7 @@
     </row>
     <row r="2469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2469" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B2469" t="s">
         <v>322</v>
@@ -35140,7 +35171,7 @@
     </row>
     <row r="2470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2470" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B2470" t="s">
         <v>322</v>
@@ -35148,7 +35179,7 @@
     </row>
     <row r="2471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2471" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B2471" t="s">
         <v>322</v>
@@ -35156,7 +35187,7 @@
     </row>
     <row r="2472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2472" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B2472" t="s">
         <v>322</v>
@@ -35164,7 +35195,7 @@
     </row>
     <row r="2473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2473" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B2473" t="s">
         <v>322</v>
@@ -35172,7 +35203,7 @@
     </row>
     <row r="2474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2474" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B2474" t="s">
         <v>322</v>
@@ -35180,7 +35211,7 @@
     </row>
     <row r="2475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2475" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B2475" t="s">
         <v>322</v>
@@ -35188,164 +35219,164 @@
     </row>
     <row r="2476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2476" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="B2476" t="s">
-        <v>2827</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2477" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="B2477" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="2478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2478" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="B2478" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="2479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2479" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="B2479" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="2480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2480" t="s">
-        <v>2834</v>
+        <v>2832</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>2833</v>
       </c>
     </row>
     <row r="2481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2481" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B2481" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="2482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2482" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="B2482" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="2483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2483" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="B2483" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="2484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2484" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="B2484" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="2485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2485" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="B2485" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="2486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2486" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="B2486" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="2487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2487" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="B2487" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="2488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2488" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="B2488" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="2489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2489" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="B2489" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="2490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2490" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="B2490" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="2491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2491" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="B2491" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="2492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2492" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="B2492" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="2493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2493" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="B2493" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="2494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2494" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="B2494" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="2495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2495" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="B2495" t="s">
-        <v>322</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="2496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2496" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B2496" t="s">
         <v>322</v>
@@ -35353,47 +35384,47 @@
     </row>
     <row r="2497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2497" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B2497" t="s">
-        <v>2866</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2498" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="B2498" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="2499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2499" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="B2499" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="2500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2500" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="B2500" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="2501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2501" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="B2501" t="s">
-        <v>322</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="2502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2502" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B2502" t="s">
         <v>322</v>
@@ -35401,28 +35432,28 @@
     </row>
     <row r="2503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2503" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B2503" t="s">
-        <v>2876</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2504" t="s">
-        <v>2877</v>
+        <v>2875</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>2876</v>
       </c>
     </row>
     <row r="2505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2505" t="s">
-        <v>2878</v>
-      </c>
-      <c r="B2505" t="s">
-        <v>322</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="2506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2506" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B2506" t="s">
         <v>322</v>
@@ -35430,7 +35461,7 @@
     </row>
     <row r="2507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2507" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B2507" t="s">
         <v>322</v>
@@ -35438,7 +35469,7 @@
     </row>
     <row r="2508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2508" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="B2508" t="s">
         <v>322</v>
@@ -35446,7 +35477,7 @@
     </row>
     <row r="2509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2509" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="B2509" t="s">
         <v>322</v>
@@ -35454,7 +35485,7 @@
     </row>
     <row r="2510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2510" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="B2510" t="s">
         <v>322</v>
@@ -35462,7 +35493,7 @@
     </row>
     <row r="2511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2511" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B2511" t="s">
         <v>322</v>
@@ -35470,163 +35501,163 @@
     </row>
     <row r="2512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2512" t="s">
-        <v>2885</v>
+        <v>2884</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="2513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2513" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="2514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2514" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="2515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2515" t="s">
-        <v>2888</v>
-      </c>
-      <c r="B2515" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="2516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2516" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="B2516" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="2517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2517" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="B2517" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="2518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2518" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="B2518" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="2519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2519" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="B2519" t="s">
-        <v>318</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="2520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2520" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B2520" t="s">
-        <v>2896</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2521" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="B2521" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="2522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2522" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B2522" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="2523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2523" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B2523" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="2524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2524" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B2524" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="2525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2525" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="B2525" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="2526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2526" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="B2526" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="2527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2527" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B2527" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="2528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2528" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B2528" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="2529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2529" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B2529" t="s">
-        <v>322</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="2530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2530" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B2530" t="s">
-        <v>2907</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2531" t="s">
-        <v>2908</v>
+        <v>2907</v>
+      </c>
+      <c r="B2531" t="s">
+        <v>2907</v>
       </c>
     </row>
     <row r="2532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2532" t="s">
-        <v>2909</v>
-      </c>
-      <c r="B2532" t="s">
-        <v>322</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="2533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2533" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="B2533" t="s">
         <v>322</v>
@@ -35634,7 +35665,7 @@
     </row>
     <row r="2534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2534" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="B2534" t="s">
         <v>322</v>
@@ -35642,7 +35673,7 @@
     </row>
     <row r="2535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2535" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="B2535" t="s">
         <v>322</v>
@@ -35650,7 +35681,7 @@
     </row>
     <row r="2536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2536" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="B2536" t="s">
         <v>322</v>
@@ -35658,47 +35689,47 @@
     </row>
     <row r="2537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2537" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="B2537" t="s">
-        <v>2914</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2538" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B2538" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="2539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2539" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="B2539" t="s">
-        <v>3226</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="2540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2540" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="B2540" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="2541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2541" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="B2541" t="s">
-        <v>322</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="2542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2542" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="B2542" t="s">
         <v>322</v>
@@ -35706,7 +35737,7 @@
     </row>
     <row r="2543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2543" t="s">
-        <v>2927</v>
+        <v>2920</v>
       </c>
       <c r="B2543" t="s">
         <v>322</v>
@@ -35714,36 +35745,36 @@
     </row>
     <row r="2544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2544" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="B2544" t="s">
-        <v>2929</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2545" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="B2545" t="s">
-        <v>322</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="2546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2546" t="s">
-        <v>2931</v>
+        <v>2930</v>
+      </c>
+      <c r="B2546" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="2547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2547" t="s">
-        <v>2932</v>
-      </c>
-      <c r="B2547" t="s">
-        <v>322</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="2548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2548" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="B2548" t="s">
         <v>322</v>
@@ -35751,7 +35782,7 @@
     </row>
     <row r="2549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2549" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B2549" t="s">
         <v>322</v>
@@ -35759,7 +35790,7 @@
     </row>
     <row r="2550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2550" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B2550" t="s">
         <v>322</v>
@@ -35767,23 +35798,23 @@
     </row>
     <row r="2551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2551" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="B2551" t="s">
-        <v>3221</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2552" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="B2552" t="s">
-        <v>322</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="2553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2553" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="B2553" t="s">
         <v>322</v>
@@ -35791,47 +35822,47 @@
     </row>
     <row r="2554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2554" t="s">
-        <v>2941</v>
-      </c>
-      <c r="B2554" s="9" t="s">
-        <v>3219</v>
+        <v>2938</v>
+      </c>
+      <c r="B2554" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="2555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2555" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="B2555" s="9" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="2556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2556" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="B2556" s="9" t="s">
-        <v>3387</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="2557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2557" t="s">
-        <v>2945</v>
-      </c>
-      <c r="B2557" t="s">
-        <v>3145</v>
+        <v>2943</v>
+      </c>
+      <c r="B2557" s="9" t="s">
+        <v>3387</v>
       </c>
     </row>
     <row r="2558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2558" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="B2558" t="s">
-        <v>322</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="2559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2559" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="B2559" t="s">
         <v>322</v>
@@ -35839,68 +35870,68 @@
     </row>
     <row r="2560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2560" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="B2560" t="s">
-        <v>3285</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2561" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="B2561" t="s">
-        <v>2949</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="2562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2562" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="B2562" t="s">
-        <v>3220</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="2563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2563" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="B2563" t="s">
-        <v>2951</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="2564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2564" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="B2564" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="2565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2565" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="B2565" t="s">
-        <v>322</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="2566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2566" t="s">
-        <v>2955</v>
+        <v>2954</v>
+      </c>
+      <c r="B2566" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="2567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2567" t="s">
-        <v>2956</v>
-      </c>
-      <c r="B2567" t="s">
-        <v>322</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="2568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2568" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="B2568" t="s">
         <v>322</v>
@@ -35908,7 +35939,7 @@
     </row>
     <row r="2569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2569" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B2569" t="s">
         <v>322</v>
@@ -35916,7 +35947,7 @@
     </row>
     <row r="2570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2570" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="B2570" t="s">
         <v>322</v>
@@ -35924,7 +35955,7 @@
     </row>
     <row r="2571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2571" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B2571" t="s">
         <v>322</v>
@@ -35932,7 +35963,7 @@
     </row>
     <row r="2572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2572" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B2572" t="s">
         <v>322</v>
@@ -35940,7 +35971,7 @@
     </row>
     <row r="2573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2573" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="B2573" t="s">
         <v>322</v>
@@ -35948,7 +35979,7 @@
     </row>
     <row r="2574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2574" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="B2574" t="s">
         <v>322</v>
@@ -35956,7 +35987,7 @@
     </row>
     <row r="2575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2575" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="B2575" t="s">
         <v>322</v>
@@ -35964,7 +35995,7 @@
     </row>
     <row r="2576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2576" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="B2576" t="s">
         <v>322</v>
@@ -35972,7 +36003,7 @@
     </row>
     <row r="2577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2577" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="B2577" t="s">
         <v>322</v>
@@ -35980,7 +36011,7 @@
     </row>
     <row r="2578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2578" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="B2578" t="s">
         <v>322</v>
@@ -35988,7 +36019,7 @@
     </row>
     <row r="2579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2579" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="B2579" t="s">
         <v>322</v>
@@ -35996,23 +36027,23 @@
     </row>
     <row r="2580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2580" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B2580" t="s">
-        <v>2969</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2581" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="B2581" t="s">
-        <v>322</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="2582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2582" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="B2582" t="s">
         <v>322</v>
@@ -36020,7 +36051,7 @@
     </row>
     <row r="2583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2583" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="B2583" t="s">
         <v>322</v>
@@ -36028,7 +36059,7 @@
     </row>
     <row r="2584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2584" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="B2584" t="s">
         <v>322</v>
@@ -36036,7 +36067,7 @@
     </row>
     <row r="2585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2585" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B2585" t="s">
         <v>322</v>
@@ -36044,7 +36075,7 @@
     </row>
     <row r="2586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2586" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B2586" t="s">
         <v>322</v>
@@ -36052,23 +36083,23 @@
     </row>
     <row r="2587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2587" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B2587" t="s">
-        <v>3286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2588" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="B2588" t="s">
-        <v>322</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="2589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2589" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B2589" t="s">
         <v>322</v>
@@ -36076,23 +36107,23 @@
     </row>
     <row r="2590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2590" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B2590" t="s">
-        <v>3288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2591" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B2591" t="s">
-        <v>322</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="2592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2592" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B2592" t="s">
         <v>322</v>
@@ -36100,7 +36131,7 @@
     </row>
     <row r="2593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2593" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B2593" t="s">
         <v>322</v>
@@ -36108,7 +36139,7 @@
     </row>
     <row r="2594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2594" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B2594" t="s">
         <v>322</v>
@@ -36116,7 +36147,7 @@
     </row>
     <row r="2595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2595" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B2595" t="s">
         <v>322</v>
@@ -36124,7 +36155,7 @@
     </row>
     <row r="2596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2596" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B2596" t="s">
         <v>322</v>
@@ -36132,7 +36163,7 @@
     </row>
     <row r="2597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2597" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B2597" t="s">
         <v>322</v>
@@ -36140,7 +36171,7 @@
     </row>
     <row r="2598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2598" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B2598" t="s">
         <v>322</v>
@@ -36148,23 +36179,23 @@
     </row>
     <row r="2599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2599" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B2599" t="s">
-        <v>2988</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2600" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B2600" t="s">
-        <v>322</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="2601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2601" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="B2601" t="s">
         <v>322</v>
@@ -36172,7 +36203,7 @@
     </row>
     <row r="2602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2602" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B2602" t="s">
         <v>322</v>
@@ -36180,39 +36211,39 @@
     </row>
     <row r="2603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2603" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B2603" t="s">
-        <v>3287</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2604" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="B2604" t="s">
-        <v>322</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="2605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2605" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="B2605" t="s">
-        <v>3289</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2606" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="B2606" t="s">
-        <v>322</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="2607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2607" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="B2607" t="s">
         <v>322</v>
@@ -36220,7 +36251,7 @@
     </row>
     <row r="2608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2608" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="B2608" t="s">
         <v>322</v>
@@ -36228,7 +36259,7 @@
     </row>
     <row r="2609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2609" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="B2609" t="s">
         <v>322</v>
@@ -36236,7 +36267,7 @@
     </row>
     <row r="2610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2610" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="B2610" t="s">
         <v>322</v>
@@ -36244,7 +36275,7 @@
     </row>
     <row r="2611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2611" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="B2611" t="s">
         <v>322</v>
@@ -36252,7 +36283,7 @@
     </row>
     <row r="2612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2612" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B2612" t="s">
         <v>322</v>
@@ -36260,52 +36291,52 @@
     </row>
     <row r="2613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2613" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B2613" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2614" t="s">
         <v>3002</v>
       </c>
-      <c r="B2613" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2614" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2614" s="12" t="s">
+      <c r="B2614" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2615" s="12" t="s">
         <v>3005</v>
       </c>
-      <c r="B2614" s="12" t="s">
+      <c r="B2615" s="12" t="s">
         <v>3126</v>
-      </c>
-      <c r="C2614" s="5"/>
-      <c r="G2614" s="13"/>
-      <c r="H2614" s="13"/>
-      <c r="I2614" s="14"/>
-    </row>
-    <row r="2615" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2615" t="s">
-        <v>3006</v>
-      </c>
-      <c r="B2615" s="12" t="s">
-        <v>3127</v>
       </c>
       <c r="C2615" s="5"/>
       <c r="G2615" s="13"/>
       <c r="H2615" s="13"/>
       <c r="I2615" s="14"/>
     </row>
-    <row r="2616" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2616" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2616" t="s">
-        <v>3016</v>
-      </c>
+        <v>3006</v>
+      </c>
+      <c r="B2616" s="12" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C2616" s="5"/>
+      <c r="G2616" s="13"/>
+      <c r="H2616" s="13"/>
+      <c r="I2616" s="14"/>
     </row>
     <row r="2617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2617" t="s">
-        <v>3017</v>
-      </c>
-      <c r="B2617" t="s">
-        <v>322</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="2618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2618" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="B2618" t="s">
         <v>322</v>
@@ -36313,7 +36344,7 @@
     </row>
     <row r="2619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2619" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B2619" t="s">
         <v>322</v>
@@ -36321,44 +36352,52 @@
     </row>
     <row r="2620" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2620" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="B2620" t="s">
-        <v>3020</v>
+        <v>3402</v>
+      </c>
+      <c r="H2620" s="5">
+        <f>16*8*4</f>
+        <v>512</v>
+      </c>
+      <c r="I2620" s="6" t="str">
+        <f t="shared" ref="I2620" si="49">IFERROR(DEC2HEX(H2620),"")</f>
+        <v>200</v>
       </c>
     </row>
     <row r="2621" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2621" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B2621" t="s">
-        <v>322</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="2622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2622" t="s">
-        <v>3022</v>
+        <v>3021</v>
+      </c>
+      <c r="B2622" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="2623" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2623" t="s">
-        <v>3023</v>
-      </c>
-      <c r="B2623" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="2624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2624" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="B2624" t="s">
-        <v>322</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="2625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2625" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="B2625" t="s">
         <v>322</v>
@@ -36366,20 +36405,20 @@
     </row>
     <row r="2626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2626" t="s">
-        <v>3026</v>
+        <v>3025</v>
+      </c>
+      <c r="B2626" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="2627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2627" t="s">
-        <v>3027</v>
-      </c>
-      <c r="B2627" t="s">
-        <v>322</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="2628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2628" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="B2628" t="s">
         <v>322</v>
@@ -36387,7 +36426,7 @@
     </row>
     <row r="2629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2629" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="B2629" t="s">
         <v>322</v>
@@ -36395,7 +36434,7 @@
     </row>
     <row r="2630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2630" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="B2630" t="s">
         <v>322</v>
@@ -36403,31 +36442,31 @@
     </row>
     <row r="2631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2631" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="B2631" t="s">
-        <v>3034</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2632" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="B2632" t="s">
-        <v>3222</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="2633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2633" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="B2633" t="s">
-        <v>322</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="2634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2634" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="B2634" t="s">
         <v>322</v>
@@ -36435,7 +36474,7 @@
     </row>
     <row r="2635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2635" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="B2635" t="s">
         <v>322</v>
@@ -36443,7 +36482,7 @@
     </row>
     <row r="2636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2636" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="B2636" t="s">
         <v>322</v>
@@ -36451,7 +36490,7 @@
     </row>
     <row r="2637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2637" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="B2637" t="s">
         <v>322</v>
@@ -36459,7 +36498,7 @@
     </row>
     <row r="2638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2638" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="B2638" t="s">
         <v>322</v>
@@ -36467,7 +36506,7 @@
     </row>
     <row r="2639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2639" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B2639" t="s">
         <v>322</v>
@@ -36475,53 +36514,61 @@
     </row>
     <row r="2640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2640" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="B2640" t="s">
-        <v>3146</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2641" t="s">
-        <v>3050</v>
+        <v>3043</v>
       </c>
       <c r="B2641" t="s">
-        <v>3051</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="2642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2642" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B2642" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2643" t="s">
         <v>3052</v>
       </c>
-      <c r="B2642" t="s">
+      <c r="B2643" t="s">
         <v>3053</v>
       </c>
     </row>
-    <row r="2643" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2643" s="13" t="s">
+    <row r="2644" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2644" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D2643" s="12" t="s">
+      <c r="D2644" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E2643" s="12" t="str">
-        <f>C2643&amp;"/"&amp;D2643</f>
+      <c r="E2644" s="12" t="str">
+        <f>C2644&amp;"/"&amp;D2644</f>
         <v>data/scrolls.block</v>
       </c>
-      <c r="G2643" s="13" t="str">
-        <f>IF(F2643&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F2643,"adrEA",""),"$","")),"")</f>
+      <c r="G2644" s="13" t="str">
+        <f>IF(F2644&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F2644,"adrEA",""),"$","")),"")</f>
         <v/>
       </c>
-      <c r="H2643" s="13">
+      <c r="H2644" s="13">
         <v>3380</v>
       </c>
-      <c r="I2643" s="14" t="str">
-        <f>IFERROR(DEC2HEX(H2643),"")</f>
+      <c r="I2644" s="14" t="str">
+        <f>IFERROR(DEC2HEX(H2644),"")</f>
         <v>D34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M2643" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M2644" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:A1048576">
     <cfRule type="expression" dxfId="4" priority="6">
@@ -36534,7 +36581,7 @@
       <formula>MATCH(A2,A:A,0)&lt;&gt;ROW(A2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:A77 A78:B147 A150:B176 A177:A179 A180:B2430 A2431:A2459 A2460:B2475 A2476:A2504 A2505:B2514 A2515:A2531 A2532:B2542 A2543:A2546 A2547:B2553 A2554:A2566 A2567:B2579 A2580:A2603 A2604:B2619 A2620:A2626 B1 B76:B77 B148:B149 H152:H157 I152:I168 H168 B2431:B2458 B2476:B2503 B2515:B2530 B2543:B2545 B2557:B2565 B2580:B2602 B2620:B2625 A2627:B1048576 H1:I151 H169:I1048576 A2:B74">
+  <conditionalFormatting sqref="A2:B74 A75:A77 A78:B147 A150:B176 A177:A179 A2432:A2460 A2461:B2476 A2477:A2505 A2506:B2515 A2516:A2532 A2533:B2543 A2544:A2547 A2548:B2554 A2555:A2567 A2568:B2580 A2581:A2604 A2605:B2620 A2621:A2627 A2628:B1048576 B1 H1:I151 B76:B77 B148:B149 H152:H157 I152:I168 H168 B2432:B2459 B2477:B2504 B2516:B2531 B2544:B2546 B2558:B2566 B2581:B2603 B2621:B2626 H169:I1048576 A180:B2431">
     <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>AND(A1&lt;&gt;"",_xlfn.ISFORMULA(A1)=TRUE)</formula>
     </cfRule>

--- a/segments.xlsx
+++ b/segments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom.cresswell/Dropbox/Geek/Gaming Projects/Bloodwych 68k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4B1273-204B-7941-8973-6821476E3E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614A19D8-A467-884D-8E3E-38735BC16714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="880" windowWidth="32720" windowHeight="22140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="880" windowWidth="32720" windowHeight="22140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLOODWYCH439" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5765" uniqueCount="3409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5765" uniqueCount="3419">
   <si>
     <t>Type</t>
   </si>
@@ -9473,9 +9473,6 @@
     <t>_Offset_AudioSampleOffsets_0x2</t>
   </si>
   <si>
-    <t>_Offset_PocketContents_0x02</t>
-  </si>
-  <si>
     <t>_Delete</t>
   </si>
   <si>
@@ -9692,12 +9689,6 @@
     <t>Switches.colours</t>
   </si>
   <si>
-    <t>_Offset_CharacterStats_0x11</t>
-  </si>
-  <si>
-    <t>_Offset_CharacterStats_0x05</t>
-  </si>
-  <si>
     <t>_Offset_CurrentTower_0x01</t>
   </si>
   <si>
@@ -10199,9 +10190,6 @@
     <t>$481FC</t>
   </si>
   <si>
-    <t>_Offset_CharacterStats_0x80</t>
-  </si>
-  <si>
     <t>Door_Lock_Colours</t>
   </si>
   <si>
@@ -10263,6 +10251,48 @@
   </si>
   <si>
     <t>GFX_CrabFace_Position</t>
+  </si>
+  <si>
+    <t>Draw_Pillar</t>
+  </si>
+  <si>
+    <t>_Offset_Character_Stats_DataTable_0x05</t>
+  </si>
+  <si>
+    <t>_Offset_Character_Stats_DataTable_0x11</t>
+  </si>
+  <si>
+    <t>_Offset_Character_Stats_DataTable_0x80</t>
+  </si>
+  <si>
+    <t>_Offset_Character_Pockets_DataTable_0x02</t>
+  </si>
+  <si>
+    <t>Flip_Sprite</t>
+  </si>
+  <si>
+    <t>Draw_Wall_Sprite</t>
+  </si>
+  <si>
+    <t>GFX_Misc_Pillar_SpriteTable</t>
+  </si>
+  <si>
+    <t>GFX_Main_Wall_SpriteTable</t>
+  </si>
+  <si>
+    <t>Bitplane_Mask</t>
+  </si>
+  <si>
+    <t>Draw_Main_Shelf_Overlay</t>
+  </si>
+  <si>
+    <t>Draw_Main_Object_Overlay</t>
+  </si>
+  <si>
+    <t>Draw_Main_Sign_Overlay</t>
+  </si>
+  <si>
+    <t>Draw_Main_Switch_Overlay</t>
   </si>
 </sst>
 </file>
@@ -10817,8 +10847,8 @@
   <dimension ref="A1:T2644"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A2001" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2044" sqref="E2044"/>
+      <pane ySplit="3" topLeftCell="A2187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2216" sqref="D2216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11364,13 +11394,13 @@
         <v>1759</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="E16" s="19" t="str">
         <f t="shared" si="0"/>
@@ -11396,7 +11426,7 @@
         <v>1760</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>8</v>
@@ -11409,7 +11439,7 @@
         <v>maps/keep.entrances</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="G17" s="18">
         <f t="shared" si="1"/>
@@ -11428,7 +11458,7 @@
         <v>1770</v>
       </c>
       <c r="B18" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>48</v>
@@ -11460,13 +11490,13 @@
         <v>2282</v>
       </c>
       <c r="B19" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -11492,13 +11522,13 @@
         <v>2283</v>
       </c>
       <c r="B20" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -11524,7 +11554,7 @@
         <v>2294</v>
       </c>
       <c r="B21" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>51</v>
@@ -11556,7 +11586,7 @@
         <v>2347</v>
       </c>
       <c r="B22" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>51</v>
@@ -11588,7 +11618,7 @@
         <v>3129</v>
       </c>
       <c r="B23" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>51</v>
@@ -11601,7 +11631,7 @@
         <v>monsters/summon.colours</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
@@ -11620,7 +11650,7 @@
         <v>2383</v>
       </c>
       <c r="B24" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>51</v>
@@ -11633,7 +11663,7 @@
         <v>monsters/dragon.colours</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
@@ -11652,7 +11682,7 @@
         <v>2404</v>
       </c>
       <c r="B25" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>51</v>
@@ -11665,7 +11695,7 @@
         <v>monsters/behemoth.colours</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
@@ -11729,7 +11759,7 @@
         <v>data/characters.heads</v>
       </c>
       <c r="F27" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
@@ -11748,7 +11778,7 @@
         <v>2921</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>48</v>
@@ -11780,7 +11810,7 @@
         <v>2922</v>
       </c>
       <c r="B29" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>48</v>
@@ -11812,7 +11842,7 @@
         <v>2916</v>
       </c>
       <c r="B30" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>48</v>
@@ -11844,20 +11874,20 @@
         <v>2924</v>
       </c>
       <c r="B31" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>data/objectfloor.colours</v>
       </c>
       <c r="F31" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="1"/>
@@ -11876,20 +11906,20 @@
         <v>2925</v>
       </c>
       <c r="B32" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>data/objectfloor.palette</v>
       </c>
       <c r="F32" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="1"/>
@@ -11921,7 +11951,7 @@
         <v>gfx/ObjectsOnFloor.gfx</v>
       </c>
       <c r="F33" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="G33" s="5">
         <f>IF(F33&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F33,"adrEA",""),"$","")),"")</f>
@@ -11940,7 +11970,7 @@
         <v>2926</v>
       </c>
       <c r="B34" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>124</v>
@@ -11953,7 +11983,7 @@
         <v>gfx/ObjectsOnFloor.offsets</v>
       </c>
       <c r="F34" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="G34" s="5">
         <f>IF(F34&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F34,"adrEA",""),"$","")),"")</f>
@@ -11972,7 +12002,7 @@
         <v>2923</v>
       </c>
       <c r="B35" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>124</v>
@@ -11985,7 +12015,7 @@
         <v>gfx/ObjectsOnFloor.heights</v>
       </c>
       <c r="F35" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="G35" s="5">
         <f>IF(F35&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F35,"adrEA",""),"$","")),"")</f>
@@ -12009,7 +12039,7 @@
         <v>2940</v>
       </c>
       <c r="B37" t="s">
-        <v>3392</v>
+        <v>3388</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>48</v>
@@ -12041,7 +12071,7 @@
         <v>2944</v>
       </c>
       <c r="B38" t="s">
-        <v>3393</v>
+        <v>3389</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>48</v>
@@ -12073,7 +12103,7 @@
         <v>3055</v>
       </c>
       <c r="B39" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>48</v>
@@ -12105,7 +12135,7 @@
         <v>3054</v>
       </c>
       <c r="B40" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>48</v>
@@ -12137,20 +12167,20 @@
         <v>1434</v>
       </c>
       <c r="B41" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="E41" t="str">
         <f>C41&amp;"/"&amp;D41</f>
         <v>data/scrollstowers.data</v>
       </c>
       <c r="F41" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="1"/>
@@ -12294,7 +12324,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>3399</v>
+        <v>3395</v>
       </c>
       <c r="B46" t="s">
         <v>3128</v>
@@ -12550,7 +12580,7 @@
     </row>
     <row r="54" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>3030</v>
@@ -12582,7 +12612,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="5" t="s">
@@ -12612,7 +12642,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="5" t="s">
@@ -12642,7 +12672,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="5" t="s">
@@ -12672,7 +12702,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="5" t="s">
@@ -12702,7 +12732,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="5" t="s">
@@ -12732,7 +12762,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="5" t="s">
@@ -12792,7 +12822,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="5" t="s">
@@ -12822,7 +12852,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="5" t="s">
@@ -12852,7 +12882,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="5" t="s">
@@ -12882,7 +12912,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="5" t="s">
@@ -12912,7 +12942,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="5" t="s">
@@ -12989,7 +13019,7 @@
         <v>3044</v>
       </c>
       <c r="B68" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>124</v>
@@ -13002,7 +13032,7 @@
         <v>gfx/ButtonHighlights.gfx</v>
       </c>
       <c r="F68" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="G68" s="5">
         <f>IF(F68&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F68,"adrEA",""),"$","")),"")</f>
@@ -13032,7 +13062,7 @@
         <v>18B7A</v>
       </c>
       <c r="O68" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -13040,7 +13070,7 @@
         <v>3045</v>
       </c>
       <c r="B69" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>124</v>
@@ -13053,7 +13083,7 @@
         <v>gfx/Scroll_Edge_Top.gfx</v>
       </c>
       <c r="F69" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="G69" s="5">
         <f>IF(F69&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F69,"adrEA",""),"$","")),"")</f>
@@ -13088,7 +13118,7 @@
         <v>3046</v>
       </c>
       <c r="B70" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>124</v>
@@ -13101,7 +13131,7 @@
         <v>gfx/Scroll_Edge_Bottom.gfx</v>
       </c>
       <c r="F70" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="G70" s="5">
         <f>IF(F70&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F70,"adrEA",""),"$","")),"")</f>
@@ -13136,7 +13166,7 @@
         <v>3047</v>
       </c>
       <c r="B71" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>124</v>
@@ -13149,7 +13179,7 @@
         <v>gfx/Scroll_Edge_Left.gfx</v>
       </c>
       <c r="F71" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="G71" s="5">
         <f>IF(F71&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F71,"adrEA",""),"$","")),"")</f>
@@ -13184,7 +13214,7 @@
         <v>3048</v>
       </c>
       <c r="B72" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>124</v>
@@ -13197,7 +13227,7 @@
         <v>gfx/Scroll_Edge_Right.gfx</v>
       </c>
       <c r="F72" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="G72" s="5">
         <f>G71+H71</f>
@@ -13232,7 +13262,7 @@
         <v>3049</v>
       </c>
       <c r="B73" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>124</v>
@@ -13245,7 +13275,7 @@
         <v>gfx/Shield_Clicked.gfx</v>
       </c>
       <c r="F73" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="G73" s="5">
         <f>G72+H72</f>
@@ -13280,7 +13310,7 @@
         <v>3056</v>
       </c>
       <c r="B74" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>124</v>
@@ -13320,7 +13350,7 @@
         <v>3057</v>
       </c>
       <c r="B75" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>124</v>
@@ -13352,7 +13382,7 @@
         <v>3058</v>
       </c>
       <c r="B76" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>124</v>
@@ -13384,7 +13414,7 @@
         <v>3059</v>
       </c>
       <c r="B77" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>124</v>
@@ -13416,7 +13446,7 @@
         <v>3060</v>
       </c>
       <c r="B78" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>124</v>
@@ -13448,7 +13478,7 @@
         <v>3061</v>
       </c>
       <c r="B79" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>124</v>
@@ -13480,7 +13510,7 @@
         <v>3062</v>
       </c>
       <c r="B80" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>124</v>
@@ -13512,7 +13542,7 @@
         <v>3063</v>
       </c>
       <c r="B81" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>124</v>
@@ -13544,7 +13574,7 @@
         <v>3064</v>
       </c>
       <c r="B82" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>124</v>
@@ -13576,7 +13606,7 @@
         <v>3065</v>
       </c>
       <c r="B83" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>124</v>
@@ -13608,7 +13638,7 @@
         <v>3066</v>
       </c>
       <c r="B84" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>124</v>
@@ -13621,7 +13651,7 @@
         <v>gfx/Stairs_Up.gfx</v>
       </c>
       <c r="F84" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="G84" s="5">
         <f t="shared" si="13"/>
@@ -13635,7 +13665,7 @@
         <v>1EA8</v>
       </c>
       <c r="L84" s="20" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="M84">
         <f>HEX2DEC(L84)</f>
@@ -13647,7 +13677,7 @@
         <v>3067</v>
       </c>
       <c r="B85" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>124</v>
@@ -13678,7 +13708,7 @@
         <v>2A7B4</v>
       </c>
       <c r="L85" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="M85">
         <f>HEX2DEC(L85)</f>
@@ -13694,7 +13724,7 @@
         <v>3068</v>
       </c>
       <c r="B86" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>124</v>
@@ -13726,7 +13756,7 @@
         <v>3069</v>
       </c>
       <c r="B87" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>124</v>
@@ -13758,7 +13788,7 @@
         <v>3070</v>
       </c>
       <c r="B88" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>124</v>
@@ -13790,7 +13820,7 @@
         <v>3071</v>
       </c>
       <c r="B89" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>124</v>
@@ -13803,7 +13833,7 @@
         <v>gfx/Pad_Pit_Low.gfx</v>
       </c>
       <c r="F89" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="G89" s="5">
         <f t="shared" si="13"/>
@@ -13822,7 +13852,7 @@
         <v>3072</v>
       </c>
       <c r="B90" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>124</v>
@@ -13835,7 +13865,7 @@
         <v>gfx/Pad_Pit_High.gfx</v>
       </c>
       <c r="F90" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="G90" s="5">
         <f t="shared" si="13"/>
@@ -13854,7 +13884,7 @@
         <v>3073</v>
       </c>
       <c r="B91" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>124</v>
@@ -13867,7 +13897,7 @@
         <v>gfx/Pad_Trigger.gfx</v>
       </c>
       <c r="F91" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="G91" s="5">
         <f t="shared" si="13"/>
@@ -13899,7 +13929,7 @@
         <v>gfx/FloorCeiling.gfx</v>
       </c>
       <c r="F92" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="G92" s="5">
         <f t="shared" si="13"/>
@@ -13931,7 +13961,7 @@
         <v>gfx/AirbourneFireball.gfx</v>
       </c>
       <c r="F93" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="G93" s="5">
         <f t="shared" si="13"/>
@@ -13963,7 +13993,7 @@
         <v>gfx/AirbourneSpells.gfx</v>
       </c>
       <c r="F94" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="G94" s="5">
         <f t="shared" si="13"/>
@@ -13995,7 +14025,7 @@
         <v>data/characters.colours</v>
       </c>
       <c r="F95" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="G95" s="5">
         <f t="shared" si="13"/>
@@ -14014,7 +14044,7 @@
         <v>3080</v>
       </c>
       <c r="B96" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>124</v>
@@ -14027,7 +14057,7 @@
         <v>gfx/HeadParts.gfx</v>
       </c>
       <c r="F96" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="G96" s="5">
         <f t="shared" si="13"/>
@@ -14046,7 +14076,7 @@
         <v>3081</v>
       </c>
       <c r="B97" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>124</v>
@@ -14059,7 +14089,7 @@
         <v>gfx/BodyParts.gfx</v>
       </c>
       <c r="F97" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="G97" s="5">
         <f t="shared" si="13"/>
@@ -14078,20 +14108,20 @@
         <v>3083</v>
       </c>
       <c r="B98" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D98" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="12"/>
         <v>gfx/Avatars_Large.gfx</v>
       </c>
       <c r="F98" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="G98" s="5">
         <f t="shared" si="13"/>
@@ -14110,7 +14140,7 @@
         <v>3084</v>
       </c>
       <c r="B99" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>124</v>
@@ -14123,7 +14153,7 @@
         <v>gfx/Shield_Avatars.gfx</v>
       </c>
       <c r="F99" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="G99" s="5">
         <f t="shared" si="13"/>
@@ -14142,7 +14172,7 @@
         <v>3085</v>
       </c>
       <c r="B100" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>124</v>
@@ -14155,7 +14185,7 @@
         <v>gfx/ShieldTop.gfx</v>
       </c>
       <c r="F100" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="G100" s="5">
         <f t="shared" si="13"/>
@@ -14174,7 +14204,7 @@
         <v>3086</v>
       </c>
       <c r="B101" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>124</v>
@@ -14187,7 +14217,7 @@
         <v>gfx/ShieldBottom.gfx</v>
       </c>
       <c r="F101" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="G101" s="5">
         <f t="shared" si="13"/>
@@ -14206,7 +14236,7 @@
         <v>3087</v>
       </c>
       <c r="B102" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>124</v>
@@ -14219,7 +14249,7 @@
         <v>gfx/ShieldClasses.gfx</v>
       </c>
       <c r="F102" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="G102" s="5">
         <f t="shared" si="13"/>
@@ -14238,7 +14268,7 @@
         <v>3088</v>
       </c>
       <c r="B103" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>124</v>
@@ -14251,7 +14281,7 @@
         <v>gfx/Fairy.gfx</v>
       </c>
       <c r="F103" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="G103" s="5">
         <f t="shared" si="13"/>
@@ -14267,7 +14297,7 @@
     </row>
     <row r="104" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="C104" s="23" t="s">
         <v>51</v>
@@ -14291,7 +14321,7 @@
         <v>1</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
@@ -14327,7 +14357,7 @@
         <v>15360</v>
       </c>
       <c r="R105" s="17" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="T105" t="str">
         <f>RIGHT(R105,4)</f>
@@ -14367,7 +14397,7 @@
         <v>15408</v>
       </c>
       <c r="R106" s="17" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="T106" t="str">
         <f t="shared" ref="T106:T117" si="22">RIGHT(R106,4)</f>
@@ -14407,7 +14437,7 @@
         <v>15456</v>
       </c>
       <c r="R107" s="17" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="T107" t="str">
         <f t="shared" si="22"/>
@@ -14447,7 +14477,7 @@
         <v>16640</v>
       </c>
       <c r="R108" s="17" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="T108" t="str">
         <f t="shared" si="22"/>
@@ -14487,7 +14517,7 @@
         <v>16688</v>
       </c>
       <c r="R109" s="17" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="T109" t="str">
         <f t="shared" si="22"/>
@@ -14527,7 +14557,7 @@
         <v>20592</v>
       </c>
       <c r="R110" s="17" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="T110" t="str">
         <f t="shared" si="22"/>
@@ -14567,7 +14597,7 @@
         <v>25856</v>
       </c>
       <c r="R111" s="17" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="T111" t="str">
         <f t="shared" si="22"/>
@@ -14607,7 +14637,7 @@
         <v>25864</v>
       </c>
       <c r="R112" s="17" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="T112" t="str">
         <f t="shared" si="22"/>
@@ -14647,7 +14677,7 @@
         <v>26560</v>
       </c>
       <c r="R113" s="17" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="T113" t="str">
         <f t="shared" si="22"/>
@@ -14687,7 +14717,7 @@
         <v>26592</v>
       </c>
       <c r="R114" s="17" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="T114" t="str">
         <f t="shared" si="22"/>
@@ -14727,7 +14757,7 @@
         <v>27232</v>
       </c>
       <c r="R115" s="17" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="T115" t="str">
         <f t="shared" si="22"/>
@@ -14767,7 +14797,7 @@
         <v>30080</v>
       </c>
       <c r="R116" s="17" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="T116" t="str">
         <f t="shared" si="22"/>
@@ -14807,7 +14837,7 @@
         <v>30344</v>
       </c>
       <c r="R117" s="17" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="T117" t="str">
         <f t="shared" si="22"/>
@@ -14819,7 +14849,7 @@
         <v>212</v>
       </c>
       <c r="B118" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>124</v>
@@ -14851,7 +14881,7 @@
         <v>215</v>
       </c>
       <c r="B119" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>124</v>
@@ -14883,7 +14913,7 @@
         <v>218</v>
       </c>
       <c r="B120" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>124</v>
@@ -14915,7 +14945,7 @@
         <v>221</v>
       </c>
       <c r="B121" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>124</v>
@@ -14947,7 +14977,7 @@
         <v>224</v>
       </c>
       <c r="B122" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>124</v>
@@ -14979,7 +15009,7 @@
         <v>227</v>
       </c>
       <c r="B123" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>124</v>
@@ -15011,7 +15041,7 @@
         <v>230</v>
       </c>
       <c r="B124" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>124</v>
@@ -15043,7 +15073,7 @@
         <v>233</v>
       </c>
       <c r="B125" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>124</v>
@@ -15075,7 +15105,7 @@
         <v>236</v>
       </c>
       <c r="B126" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>124</v>
@@ -15107,7 +15137,7 @@
         <v>239</v>
       </c>
       <c r="B127" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>124</v>
@@ -15139,7 +15169,7 @@
         <v>242</v>
       </c>
       <c r="B128" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>124</v>
@@ -15171,7 +15201,7 @@
         <v>245</v>
       </c>
       <c r="B129" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>124</v>
@@ -15203,7 +15233,7 @@
         <v>248</v>
       </c>
       <c r="B130" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>124</v>
@@ -15235,7 +15265,7 @@
         <v>251</v>
       </c>
       <c r="B131" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>124</v>
@@ -15267,7 +15297,7 @@
         <v>254</v>
       </c>
       <c r="B132" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>124</v>
@@ -15299,7 +15329,7 @@
         <v>257</v>
       </c>
       <c r="B133" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>124</v>
@@ -15331,7 +15361,7 @@
         <v>260</v>
       </c>
       <c r="B134" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>124</v>
@@ -15363,7 +15393,7 @@
         <v>263</v>
       </c>
       <c r="B135" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>124</v>
@@ -15395,7 +15425,7 @@
         <v>266</v>
       </c>
       <c r="B136" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>124</v>
@@ -15427,7 +15457,7 @@
         <v>269</v>
       </c>
       <c r="B137" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>124</v>
@@ -15459,7 +15489,7 @@
         <v>272</v>
       </c>
       <c r="B138" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>124</v>
@@ -15491,7 +15521,7 @@
         <v>275</v>
       </c>
       <c r="B139" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>124</v>
@@ -15523,7 +15553,7 @@
         <v>278</v>
       </c>
       <c r="B140" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>124</v>
@@ -15555,7 +15585,7 @@
         <v>281</v>
       </c>
       <c r="B141" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>124</v>
@@ -15587,7 +15617,7 @@
         <v>284</v>
       </c>
       <c r="B142" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>124</v>
@@ -15619,7 +15649,7 @@
         <v>287</v>
       </c>
       <c r="B143" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>124</v>
@@ -15651,7 +15681,7 @@
         <v>290</v>
       </c>
       <c r="B144" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>124</v>
@@ -15683,7 +15713,7 @@
         <v>293</v>
       </c>
       <c r="B145" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>124</v>
@@ -15715,7 +15745,7 @@
         <v>296</v>
       </c>
       <c r="B146" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>124</v>
@@ -15747,7 +15777,7 @@
         <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>124</v>
@@ -15760,7 +15790,7 @@
         <v>gfx/Main_Slots.offsets</v>
       </c>
       <c r="F147" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="G147" s="5">
         <f t="shared" si="27"/>
@@ -15779,20 +15809,20 @@
         <v>299</v>
       </c>
       <c r="B148" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D148" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="26"/>
         <v>gfx/Switches.colours</v>
       </c>
       <c r="F148" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="G148" s="5">
         <f t="shared" si="27"/>
@@ -15811,7 +15841,7 @@
         <v>300</v>
       </c>
       <c r="B149" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>124</v>
@@ -15824,7 +15854,7 @@
         <v>gfx/Main_Sign.colours</v>
       </c>
       <c r="F149" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="G149" s="5">
         <f t="shared" si="27"/>
@@ -15854,7 +15884,7 @@
         <v>3082</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C151" s="13"/>
       <c r="G151" s="13"/>
@@ -15866,7 +15896,7 @@
         <v>3089</v>
       </c>
       <c r="B152" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>51</v>
@@ -15879,7 +15909,7 @@
         <v>monsters/Summon.gfx</v>
       </c>
       <c r="F152" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="G152" s="5">
         <f t="shared" ref="G152:G158" si="29">IF(F152&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F152,"adrEA",""),"$","")),"")</f>
@@ -15894,7 +15924,7 @@
         <v>3090</v>
       </c>
       <c r="B153" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>51</v>
@@ -15907,7 +15937,7 @@
         <v>monsters/Behemoth.gfx</v>
       </c>
       <c r="F153" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="G153" s="5">
         <f t="shared" si="29"/>
@@ -15930,7 +15960,7 @@
         <v>3091</v>
       </c>
       <c r="B154" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>51</v>
@@ -15943,7 +15973,7 @@
         <v>monsters/Crab.gfx</v>
       </c>
       <c r="F154" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="G154" s="5">
         <f t="shared" si="29"/>
@@ -15966,7 +15996,7 @@
         <v>3092</v>
       </c>
       <c r="B155" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>51</v>
@@ -15979,7 +16009,7 @@
         <v>monsters/CrabClaw.gfx</v>
       </c>
       <c r="F155" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="G155" s="5">
         <f t="shared" si="29"/>
@@ -16002,7 +16032,7 @@
         <v>2369</v>
       </c>
       <c r="B156" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>51</v>
@@ -16024,7 +16054,7 @@
         <v>2370</v>
       </c>
       <c r="B157" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>51</v>
@@ -16042,16 +16072,16 @@
         <v>3142</v>
       </c>
       <c r="B158" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E158" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="F158" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="G158" s="5">
         <f t="shared" si="29"/>
@@ -16071,16 +16101,16 @@
         <v>3133</v>
       </c>
       <c r="B159" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E159" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="F159" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="G159" s="5">
         <f t="shared" ref="G159:G167" si="30">IF(F159&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F159,"adrEA",""),"$","")),"")</f>
@@ -16108,16 +16138,16 @@
         <v>3134</v>
       </c>
       <c r="B160" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E160" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="F160" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="G160" s="5">
         <f t="shared" si="30"/>
@@ -16145,16 +16175,16 @@
         <v>3135</v>
       </c>
       <c r="B161" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E161" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="F161" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="G161" s="5">
         <f t="shared" si="30"/>
@@ -16182,16 +16212,16 @@
         <v>3136</v>
       </c>
       <c r="B162" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E162" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="F162" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="G162" s="5">
         <f t="shared" si="30"/>
@@ -16219,16 +16249,16 @@
         <v>3137</v>
       </c>
       <c r="B163" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E163" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="F163" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="G163" s="5">
         <f t="shared" si="30"/>
@@ -16256,16 +16286,16 @@
         <v>3138</v>
       </c>
       <c r="B164" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E164" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="F164" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="G164" s="5">
         <f t="shared" si="30"/>
@@ -16293,16 +16323,16 @@
         <v>3139</v>
       </c>
       <c r="B165" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E165" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="F165" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="G165" s="5">
         <f t="shared" si="30"/>
@@ -16330,16 +16360,16 @@
         <v>3140</v>
       </c>
       <c r="B166" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E166" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="F166" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="G166" s="5">
         <f t="shared" si="30"/>
@@ -16367,16 +16397,16 @@
         <v>3141</v>
       </c>
       <c r="B167" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E167" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="F167" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="G167" s="5">
         <f t="shared" si="30"/>
@@ -16404,7 +16434,7 @@
         <v>3093</v>
       </c>
       <c r="B168" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>51</v>
@@ -16445,7 +16475,7 @@
         <v>3094</v>
       </c>
       <c r="B169" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>51</v>
@@ -16486,7 +16516,7 @@
         <v>3095</v>
       </c>
       <c r="B170" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>124</v>
@@ -16499,7 +16529,7 @@
         <v>gfx/Pockets.gfx</v>
       </c>
       <c r="F170" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="G170" s="5">
         <f>IF(F170&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F170,"adrEA",""),"$","")),"")</f>
@@ -16521,13 +16551,13 @@
         <v>312190</v>
       </c>
       <c r="M170" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="N170" s="21" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="P170" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="Q170" t="s">
         <v>3125</v>
@@ -16538,7 +16568,7 @@
         <v>3109</v>
       </c>
       <c r="B171" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>195</v>
@@ -16575,34 +16605,34 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B172" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B173" t="s">
         <v>3182</v>
-      </c>
-      <c r="B173" t="s">
-        <v>3183</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B174" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B175" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
@@ -16610,7 +16640,7 @@
         <v>3110</v>
       </c>
       <c r="B176" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>195</v>
@@ -16642,7 +16672,7 @@
         <v>3111</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>195</v>
@@ -16674,7 +16704,7 @@
         <v>3112</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>195</v>
@@ -16706,7 +16736,7 @@
         <v>3113</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>195</v>
@@ -18435,20 +18465,20 @@
         <v>541</v>
       </c>
       <c r="B386" t="s">
-        <v>3394</v>
+        <v>3390</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D386" t="s">
-        <v>3396</v>
+        <v>3392</v>
       </c>
       <c r="E386" t="str">
         <f t="shared" ref="E386" si="39">C386&amp;"/"&amp;D386</f>
         <v>data/monsters.spellbook.block</v>
       </c>
       <c r="F386" t="s">
-        <v>3395</v>
+        <v>3391</v>
       </c>
       <c r="G386" s="5">
         <f t="shared" ref="G386" si="40">IF(F386&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F386,"adrEA",""),"$","")),"")</f>
@@ -22371,7 +22401,7 @@
         <v>1032</v>
       </c>
       <c r="B875" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
@@ -22411,7 +22441,7 @@
         <v>1037</v>
       </c>
       <c r="B880" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
@@ -25077,7 +25107,7 @@
         <v>1431</v>
       </c>
       <c r="B1214" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
@@ -25085,7 +25115,7 @@
         <v>1432</v>
       </c>
       <c r="B1215" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
@@ -25093,7 +25123,7 @@
         <v>1433</v>
       </c>
       <c r="B1216" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
@@ -25101,7 +25131,7 @@
         <v>1435</v>
       </c>
       <c r="B1217" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
@@ -25109,7 +25139,7 @@
         <v>1436</v>
       </c>
       <c r="B1218" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
@@ -25117,7 +25147,7 @@
         <v>1437</v>
       </c>
       <c r="B1219" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
@@ -25242,7 +25272,7 @@
         <v>1463</v>
       </c>
       <c r="B1235" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
@@ -26274,7 +26304,7 @@
         <v>1599</v>
       </c>
       <c r="B1364" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
@@ -26554,7 +26584,7 @@
         <v>1636</v>
       </c>
       <c r="B1399" t="s">
-        <v>3397</v>
+        <v>3393</v>
       </c>
       <c r="F1399">
         <v>16</v>
@@ -27487,7 +27517,7 @@
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="B1516" t="s">
         <v>1779</v>
@@ -27647,7 +27677,7 @@
         <v>1810</v>
       </c>
       <c r="B1536" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
@@ -27655,7 +27685,7 @@
         <v>1811</v>
       </c>
       <c r="B1537" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
@@ -29687,7 +29717,7 @@
         <v>2080</v>
       </c>
       <c r="B1791" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="1792" spans="1:2" x14ac:dyDescent="0.2">
@@ -29695,7 +29725,7 @@
         <v>2081</v>
       </c>
       <c r="B1792" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="1793" spans="1:2" x14ac:dyDescent="0.2">
@@ -30457,7 +30487,7 @@
         <v>2182</v>
       </c>
       <c r="B1888" t="s">
-        <v>322</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="1889" spans="1:2" x14ac:dyDescent="0.2">
@@ -30473,7 +30503,7 @@
         <v>2184</v>
       </c>
       <c r="B1890" t="s">
-        <v>322</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="1891" spans="1:2" x14ac:dyDescent="0.2">
@@ -30489,7 +30519,7 @@
         <v>2186</v>
       </c>
       <c r="B1892" t="s">
-        <v>322</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="1893" spans="1:2" x14ac:dyDescent="0.2">
@@ -30673,7 +30703,7 @@
         <v>2209</v>
       </c>
       <c r="B1915" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="1916" spans="1:3" x14ac:dyDescent="0.2">
@@ -30697,7 +30727,7 @@
         <v>2212</v>
       </c>
       <c r="C1918" s="5" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="1919" spans="1:3" x14ac:dyDescent="0.2">
@@ -31065,7 +31095,7 @@
         <v>322</v>
       </c>
       <c r="C1964" s="5" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1965" spans="1:3" x14ac:dyDescent="0.2">
@@ -31076,7 +31106,7 @@
         <v>322</v>
       </c>
       <c r="C1965" s="5" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1966" spans="1:3" x14ac:dyDescent="0.2">
@@ -31087,7 +31117,7 @@
         <v>322</v>
       </c>
       <c r="C1966" s="5" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1967" spans="1:3" x14ac:dyDescent="0.2">
@@ -31098,7 +31128,7 @@
         <v>322</v>
       </c>
       <c r="C1967" s="5" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1968" spans="1:3" x14ac:dyDescent="0.2">
@@ -31138,7 +31168,7 @@
         <v>322</v>
       </c>
       <c r="C1972" s="5" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="1973" spans="1:3" x14ac:dyDescent="0.2">
@@ -31181,7 +31211,7 @@
         <v>322</v>
       </c>
       <c r="C1977" s="5" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="1978" spans="1:3" x14ac:dyDescent="0.2">
@@ -31192,7 +31222,7 @@
         <v>322</v>
       </c>
       <c r="C1978" s="5" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1979" spans="1:3" x14ac:dyDescent="0.2">
@@ -31203,7 +31233,7 @@
         <v>322</v>
       </c>
       <c r="C1979" s="5" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1980" spans="1:3" x14ac:dyDescent="0.2">
@@ -31214,7 +31244,7 @@
         <v>322</v>
       </c>
       <c r="C1980" s="5" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1981" spans="1:3" x14ac:dyDescent="0.2">
@@ -31225,7 +31255,7 @@
         <v>322</v>
       </c>
       <c r="C1981" s="5" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1982" spans="1:3" x14ac:dyDescent="0.2">
@@ -31236,7 +31266,7 @@
         <v>322</v>
       </c>
       <c r="C1982" s="5" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1983" spans="1:3" x14ac:dyDescent="0.2">
@@ -31268,7 +31298,7 @@
         <v>2290</v>
       </c>
       <c r="B1986" t="s">
-        <v>3400</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="1987" spans="1:2" x14ac:dyDescent="0.2">
@@ -31276,7 +31306,7 @@
         <v>2291</v>
       </c>
       <c r="B1987" t="s">
-        <v>3401</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.2">
@@ -31484,7 +31514,7 @@
         <v>2319</v>
       </c>
       <c r="B2013" t="s">
-        <v>3407</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="2014" spans="1:2" x14ac:dyDescent="0.2">
@@ -31492,7 +31522,7 @@
         <v>2320</v>
       </c>
       <c r="B2014" t="s">
-        <v>3408</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="2015" spans="1:2" x14ac:dyDescent="0.2">
@@ -31889,7 +31919,7 @@
         <v>2375</v>
       </c>
       <c r="B2064" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="2065" spans="1:2" x14ac:dyDescent="0.2">
@@ -31897,7 +31927,7 @@
         <v>2376</v>
       </c>
       <c r="B2065" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="2066" spans="1:2" x14ac:dyDescent="0.2">
@@ -32190,10 +32220,10 @@
     </row>
     <row r="2102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2102" t="s">
-        <v>3404</v>
+        <v>3400</v>
       </c>
       <c r="B2102" t="s">
-        <v>3405</v>
+        <v>3401</v>
       </c>
       <c r="H2102" s="5">
         <v>24</v>
@@ -32208,7 +32238,7 @@
         <v>2418</v>
       </c>
       <c r="B2103" t="s">
-        <v>3403</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="2104" spans="1:9" x14ac:dyDescent="0.2">
@@ -32216,7 +32246,7 @@
         <v>2419</v>
       </c>
       <c r="B2104" t="s">
-        <v>3406</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="2105" spans="1:9" x14ac:dyDescent="0.2">
@@ -32291,7 +32321,7 @@
         <v>2430</v>
       </c>
       <c r="B2113" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="2114" spans="1:2" x14ac:dyDescent="0.2">
@@ -32987,7 +33017,7 @@
         <v>2519</v>
       </c>
       <c r="B2200" t="s">
-        <v>322</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="2201" spans="1:2" x14ac:dyDescent="0.2">
@@ -33003,7 +33033,7 @@
         <v>2521</v>
       </c>
       <c r="B2202" t="s">
-        <v>322</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="2203" spans="1:2" x14ac:dyDescent="0.2">
@@ -33019,7 +33049,7 @@
         <v>2523</v>
       </c>
       <c r="B2204" t="s">
-        <v>322</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="2205" spans="1:2" x14ac:dyDescent="0.2">
@@ -33035,7 +33065,7 @@
         <v>2525</v>
       </c>
       <c r="B2206" t="s">
-        <v>322</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="2207" spans="1:2" x14ac:dyDescent="0.2">
@@ -33107,7 +33137,7 @@
         <v>2534</v>
       </c>
       <c r="B2215" t="s">
-        <v>322</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="2216" spans="1:9" x14ac:dyDescent="0.2">
@@ -33123,7 +33153,7 @@
         <v>2536</v>
       </c>
       <c r="B2217" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="C2217" s="5" t="s">
         <v>124</v>
@@ -33136,7 +33166,7 @@
         <v>gfx/Main_Slots.colours</v>
       </c>
       <c r="F2217" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="G2217" s="5">
         <f t="shared" ref="G2217" si="44">IF(F2217&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F2217,"adrEA",""),"$","")),"")</f>
@@ -33163,7 +33193,7 @@
         <v>2538</v>
       </c>
       <c r="B2219" t="s">
-        <v>322</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="2220" spans="1:9" x14ac:dyDescent="0.2">
@@ -33171,20 +33201,20 @@
         <v>2539</v>
       </c>
       <c r="B2220" t="s">
-        <v>3388</v>
+        <v>3384</v>
       </c>
       <c r="C2220" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D2220" t="s">
-        <v>3389</v>
+        <v>3385</v>
       </c>
       <c r="E2220" t="str">
         <f t="shared" ref="E2220" si="46">C2220&amp;"/"&amp;D2220</f>
         <v>data/Door_Lock.colours</v>
       </c>
       <c r="F2220" t="s">
-        <v>3390</v>
+        <v>3386</v>
       </c>
       <c r="G2220" s="5">
         <f t="shared" ref="G2220" si="47">IF(F2220&lt;&gt;"",HEX2DEC(SUBSTITUTE(SUBSTITUTE(F2220,"adrEA",""),"$","")),"")</f>
@@ -33315,7 +33345,7 @@
         <v>2554</v>
       </c>
       <c r="B2235" t="s">
-        <v>322</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="2236" spans="1:2" x14ac:dyDescent="0.2">
@@ -33355,7 +33385,7 @@
         <v>2559</v>
       </c>
       <c r="B2240" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="2241" spans="1:2" x14ac:dyDescent="0.2">
@@ -33363,7 +33393,7 @@
         <v>2560</v>
       </c>
       <c r="B2241" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="2242" spans="1:2" x14ac:dyDescent="0.2">
@@ -33371,7 +33401,7 @@
         <v>2561</v>
       </c>
       <c r="B2242" t="s">
-        <v>3391</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="2243" spans="1:2" x14ac:dyDescent="0.2">
@@ -35716,7 +35746,7 @@
         <v>2917</v>
       </c>
       <c r="B2540" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="2541" spans="1:2" x14ac:dyDescent="0.2">
@@ -35724,7 +35754,7 @@
         <v>2918</v>
       </c>
       <c r="B2541" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="2542" spans="1:2" x14ac:dyDescent="0.2">
@@ -35809,7 +35839,7 @@
         <v>2936</v>
       </c>
       <c r="B2552" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="2553" spans="1:2" x14ac:dyDescent="0.2">
@@ -35833,7 +35863,7 @@
         <v>2941</v>
       </c>
       <c r="B2555" s="9" t="s">
-        <v>3219</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="2556" spans="1:2" x14ac:dyDescent="0.2">
@@ -35841,7 +35871,7 @@
         <v>2942</v>
       </c>
       <c r="B2556" s="9" t="s">
-        <v>3218</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="2557" spans="1:2" x14ac:dyDescent="0.2">
@@ -35849,7 +35879,7 @@
         <v>2943</v>
       </c>
       <c r="B2557" s="9" t="s">
-        <v>3387</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="2558" spans="1:2" x14ac:dyDescent="0.2">
@@ -35857,7 +35887,7 @@
         <v>2945</v>
       </c>
       <c r="B2558" t="s">
-        <v>3145</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="2559" spans="1:2" x14ac:dyDescent="0.2">
@@ -35881,7 +35911,7 @@
         <v>2948</v>
       </c>
       <c r="B2561" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="2562" spans="1:2" x14ac:dyDescent="0.2">
@@ -35897,7 +35927,7 @@
         <v>2950</v>
       </c>
       <c r="B2563" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="2564" spans="1:2" x14ac:dyDescent="0.2">
@@ -36094,7 +36124,7 @@
         <v>2976</v>
       </c>
       <c r="B2588" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="2589" spans="1:2" x14ac:dyDescent="0.2">
@@ -36118,7 +36148,7 @@
         <v>2979</v>
       </c>
       <c r="B2591" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="2592" spans="1:2" x14ac:dyDescent="0.2">
@@ -36222,7 +36252,7 @@
         <v>2992</v>
       </c>
       <c r="B2604" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="2605" spans="1:2" x14ac:dyDescent="0.2">
@@ -36238,7 +36268,7 @@
         <v>2994</v>
       </c>
       <c r="B2606" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="2607" spans="1:2" x14ac:dyDescent="0.2">
@@ -36355,7 +36385,7 @@
         <v>3019</v>
       </c>
       <c r="B2620" t="s">
-        <v>3402</v>
+        <v>3398</v>
       </c>
       <c r="H2620" s="5">
         <f>16*8*4</f>
@@ -36461,7 +36491,7 @@
         <v>3035</v>
       </c>
       <c r="B2633" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="2634" spans="1:2" x14ac:dyDescent="0.2">
@@ -36525,7 +36555,7 @@
         <v>3043</v>
       </c>
       <c r="B2641" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="2642" spans="1:9" x14ac:dyDescent="0.2">

--- a/segments.xlsx
+++ b/segments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom.cresswell/Dropbox/Geek/Gaming Projects/Bloodwych 68k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614A19D8-A467-884D-8E3E-38735BC16714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808B928A-F928-7842-BF02-7E23579EF903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="880" windowWidth="32720" windowHeight="22140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3280" yWindow="880" windowWidth="32720" windowHeight="22140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLOODWYCH439" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BLOODWYCH439!$A$1:$M$2644</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5765" uniqueCount="3419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5765" uniqueCount="3428">
   <si>
     <t>Type</t>
   </si>
@@ -10293,6 +10293,33 @@
   </si>
   <si>
     <t>Draw_Main_Switch_Overlay</t>
+  </si>
+  <si>
+    <t>MonsterAttackTypeTable</t>
+  </si>
+  <si>
+    <t>AttackType_NoSpells</t>
+  </si>
+  <si>
+    <t>AttackType_Spells</t>
+  </si>
+  <si>
+    <t>AttackType_Drone</t>
+  </si>
+  <si>
+    <t>AttackType_DroneSpells</t>
+  </si>
+  <si>
+    <t>AttackType_ArcBoltMachine</t>
+  </si>
+  <si>
+    <t>Monster_Movement_DataTable</t>
+  </si>
+  <si>
+    <t>DroppedObjects_DataTable</t>
+  </si>
+  <si>
+    <t>.DropTheObject</t>
   </si>
 </sst>
 </file>
@@ -10847,8 +10874,8 @@
   <dimension ref="A1:T2644"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A2187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2216" sqref="D2216"/>
+      <pane ySplit="3" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C537" sqref="C537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18449,7 +18476,7 @@
         <v>539</v>
       </c>
       <c r="B384" t="s">
-        <v>322</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">
@@ -18457,7 +18484,7 @@
         <v>540</v>
       </c>
       <c r="B385" t="s">
-        <v>322</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
@@ -18497,7 +18524,7 @@
         <v>542</v>
       </c>
       <c r="B387" t="s">
-        <v>322</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
@@ -18537,7 +18564,7 @@
         <v>547</v>
       </c>
       <c r="B392" t="s">
-        <v>322</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.2">
@@ -18545,7 +18572,7 @@
         <v>548</v>
       </c>
       <c r="B393" t="s">
-        <v>322</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.2">
@@ -18609,7 +18636,7 @@
         <v>556</v>
       </c>
       <c r="B401" t="s">
-        <v>322</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -18673,7 +18700,7 @@
         <v>564</v>
       </c>
       <c r="B409" t="s">
-        <v>322</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -19753,7 +19780,7 @@
         <v>699</v>
       </c>
       <c r="B544" t="s">
-        <v>322</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
@@ -19761,7 +19788,7 @@
         <v>700</v>
       </c>
       <c r="B545" t="s">
-        <v>322</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
@@ -36611,7 +36638,7 @@
       <formula>MATCH(A2,A:A,0)&lt;&gt;ROW(A2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B74 A75:A77 A78:B147 A150:B176 A177:A179 A2432:A2460 A2461:B2476 A2477:A2505 A2506:B2515 A2516:A2532 A2533:B2543 A2544:A2547 A2548:B2554 A2555:A2567 A2568:B2580 A2581:A2604 A2605:B2620 A2621:A2627 A2628:B1048576 B1 H1:I151 B76:B77 B148:B149 H152:H157 I152:I168 H168 B2432:B2459 B2477:B2504 B2516:B2531 B2544:B2546 B2558:B2566 B2581:B2603 B2621:B2626 H169:I1048576 A180:B2431">
+  <conditionalFormatting sqref="A2:B74 A75:A77 A78:B147 A150:B176 A177:A179 A180:B2431 A2432:A2460 A2461:B2476 A2477:A2505 A2506:B2515 A2516:A2532 A2533:B2543 A2544:A2547 A2548:B2554 A2555:A2567 A2568:B2580 A2581:A2604 A2605:B2620 A2621:A2627 A2628:B1048576 B1 H1:I151 B76:B77 B148:B149 H152:H157 I152:I168 H168 H169:I1048576 B2432:B2459 B2477:B2504 B2516:B2531 B2544:B2546 B2558:B2566 B2581:B2603 B2621:B2626">
     <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>AND(A1&lt;&gt;"",_xlfn.ISFORMULA(A1)=TRUE)</formula>
     </cfRule>

--- a/segments.xlsx
+++ b/segments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom.cresswell/Dropbox/Geek/Gaming Projects/Bloodwych 68k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808B928A-F928-7842-BF02-7E23579EF903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1323E9-5BCC-D24C-98A8-664CFF567194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="880" windowWidth="32720" windowHeight="22140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12620" yWindow="1240" windowWidth="32720" windowHeight="22140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLOODWYCH439" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5765" uniqueCount="3428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5765" uniqueCount="3432">
   <si>
     <t>Type</t>
   </si>
@@ -10320,6 +10320,18 @@
   </si>
   <si>
     <t>.DropTheObject</t>
+  </si>
+  <si>
+    <t>.Trader_NotPotionsButArms</t>
+  </si>
+  <si>
+    <t>ArmouryList</t>
+  </si>
+  <si>
+    <t>Trade_Exchange_TBC</t>
+  </si>
+  <si>
+    <t>Trade_Offer_TBC</t>
   </si>
 </sst>
 </file>
@@ -10874,8 +10886,8 @@
   <dimension ref="A1:T2644"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C537" sqref="C537"/>
+      <pane ySplit="3" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B704" sqref="B704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20924,7 +20936,7 @@
         <v>843</v>
       </c>
       <c r="B687" t="s">
-        <v>322</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
@@ -21164,7 +21176,7 @@
         <v>873</v>
       </c>
       <c r="B717" t="s">
-        <v>322</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
@@ -21180,7 +21192,7 @@
         <v>875</v>
       </c>
       <c r="B719" t="s">
-        <v>322</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
@@ -21196,7 +21208,7 @@
         <v>877</v>
       </c>
       <c r="B721" t="s">
-        <v>322</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
@@ -36638,7 +36650,7 @@
       <formula>MATCH(A2,A:A,0)&lt;&gt;ROW(A2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B74 A75:A77 A78:B147 A150:B176 A177:A179 A180:B2431 A2432:A2460 A2461:B2476 A2477:A2505 A2506:B2515 A2516:A2532 A2533:B2543 A2544:A2547 A2548:B2554 A2555:A2567 A2568:B2580 A2581:A2604 A2605:B2620 A2621:A2627 A2628:B1048576 B1 H1:I151 B76:B77 B148:B149 H152:H157 I152:I168 H168 H169:I1048576 B2432:B2459 B2477:B2504 B2516:B2531 B2544:B2546 B2558:B2566 B2581:B2603 B2621:B2626">
+  <conditionalFormatting sqref="A2:B74 A75:A77 A78:B147 A150:B176 A177:A179 A2432:A2460 A2461:B2476 A2477:A2505 A2506:B2515 A2516:A2532 A2533:B2543 A2544:A2547 A2548:B2554 A2555:A2567 A2568:B2580 A2581:A2604 A2605:B2620 A2621:A2627 A2628:B1048576 B1 H1:I151 B76:B77 B148:B149 H152:H157 I152:I168 H168 H169:I1048576 B2432:B2459 B2477:B2504 B2516:B2531 B2544:B2546 B2558:B2566 B2581:B2603 B2621:B2626 A180:B2431">
     <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>AND(A1&lt;&gt;"",_xlfn.ISFORMULA(A1)=TRUE)</formula>
     </cfRule>
